--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_12_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_12_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1886550.421431824</v>
+        <v>1851488.994998019</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1551231.35073974</v>
+        <v>1551231.350739741</v>
       </c>
     </row>
     <row r="8">
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>5.765157819097949</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.424434953660366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>6.424434953660366</v>
       </c>
-      <c r="C3" t="n">
+      <c r="G3" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="D3" t="n">
+      <c r="H3" t="n">
         <v>7.293863480540836</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>7.293863480540836</v>
@@ -822,55 +822,55 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.424434953660365</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="E4" t="n">
-        <v>6.424434953660366</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="T4" t="n">
         <v>7.293863480540836</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="T5" t="n">
-        <v>6.424434953660366</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>7.293863480540836</v>
+        <v>5.765157819097949</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>6.424434953660366</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>6.424434953660366</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>7.293863480540836</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>6.424434953660365</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6.424434953660365</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.424434953660366</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>5.765157819097949</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>6.424434953660366</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.424434953660365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>6.424434953660366</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="K10" t="n">
         <v>7.293863480540836</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>7.460858267636302</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.427918235523</v>
       </c>
       <c r="H11" t="n">
-        <v>323.5312048257193</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>150.2157824119305</v>
+        <v>120.621100367408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>216.7190937171522</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3636158030798</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,7 +1460,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835502</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
         <v>135.2597796658858</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.2495544113732</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>144.6128683092126</v>
       </c>
       <c r="S13" t="n">
-        <v>211.2033508485612</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.2146809774718</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.017359417315</v>
+        <v>158.824294654994</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>268.1580401031146</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>413.427918235523</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.5312048257193</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>150.2157824119305</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>173.3506718757211</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.7190937171522</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3636158030798</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>155.1517985361459</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>47.29531874223596</v>
+        <v>47.2953187422352</v>
       </c>
       <c r="S15" t="n">
         <v>154.7812264787685</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>155.9435832878013</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>144.6128683092126</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>210.3586802440996</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>102.7863627589186</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>222.9164069864476</v>
       </c>
       <c r="C17" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
         <v>413.427918235523</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>126.3054169570343</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>52.22163426465082</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>173.3506718757211</v>
       </c>
       <c r="T17" t="n">
         <v>216.7190937171522</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>79.95962621462272</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>144.6128683092126</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.017359417315</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>258.8051635168204</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,22 +2086,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.427918235523</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>68.64448551954999</v>
+        <v>323.5312048257193</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>150.2157824119305</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>52.22163426465083</v>
+        <v>52.22163426465082</v>
       </c>
       <c r="S20" t="n">
         <v>173.3506718757211</v>
@@ -2137,16 +2137,16 @@
         <v>216.7190937171522</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3636158030798</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>162.5973379843212</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>135.2597796658858</v>
       </c>
       <c r="H21" t="n">
-        <v>103.0893837360688</v>
+        <v>103.0893837360689</v>
       </c>
       <c r="I21" t="n">
-        <v>60.21876393749628</v>
+        <v>60.21876393749627</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>204.4616296084793</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>144.6128683092126</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>211.2033508485612</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.5977730478223</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.017359417315</v>
       </c>
       <c r="V22" t="n">
-        <v>108.021399037752</v>
+        <v>117.3254549386174</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>243.5183340663056</v>
+        <v>413.427918235523</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>150.2157824119305</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>52.22163426465083</v>
+        <v>52.22163426465082</v>
       </c>
       <c r="S23" t="n">
-        <v>173.3506718757211</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3636158030798</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>306.5937061748718</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>103.0893837360689</v>
       </c>
       <c r="I24" t="n">
-        <v>60.21876393749628</v>
+        <v>60.21876393749627</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2520,28 +2520,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>26.16653667524002</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>70.36070533201429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.5977730478223</v>
       </c>
       <c r="U25" t="n">
-        <v>286.017359417315</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>91.15891826337729</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
@@ -2566,16 +2566,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.5312048257193</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>150.2157824119305</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>52.22163426465083</v>
+        <v>52.22163426465082</v>
       </c>
       <c r="S26" t="n">
-        <v>173.3506718757211</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.7190937171522</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3636158030798</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>173.167651040958</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.1310967754446</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>103.0893837360689</v>
       </c>
       <c r="I27" t="n">
-        <v>60.21876393749628</v>
+        <v>60.21876393749627</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>155.9435832878013</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2757,22 +2757,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>26.16653667524002</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>124.3151440838536</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>211.2033508485612</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.5977730478223</v>
       </c>
       <c r="U28" t="n">
-        <v>286.017359417315</v>
+        <v>96.6906840591633</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>179.9856845209248</v>
+        <v>323.5312048257193</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>52.22163426465083</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>173.3506718757211</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.7190937171522</v>
+        <v>183.8282828440276</v>
       </c>
       <c r="U29" t="n">
         <v>251.3636158030798</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>103.0893837360689</v>
       </c>
       <c r="I30" t="n">
-        <v>60.21876393749628</v>
+        <v>60.21876393749627</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.2495544113732</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>10.57070436683756</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>144.6128683092126</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.5977730478223</v>
       </c>
       <c r="U31" t="n">
         <v>286.017359417315</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>258.8051635168203</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>236.1941019135948</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>323.5312048257193</v>
       </c>
       <c r="I32" t="n">
-        <v>61.60384246067711</v>
+        <v>150.2157824119305</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>52.22163426465083</v>
+        <v>52.22163426465082</v>
       </c>
       <c r="S32" t="n">
-        <v>173.3506718757211</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.7190937171522</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3636158030798</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -3094,7 +3094,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>103.0893837360689</v>
       </c>
       <c r="I33" t="n">
-        <v>60.21876393749628</v>
+        <v>60.21876393749627</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>57.9591363966455</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3231,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>26.16653667524002</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>211.2033508485612</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>124.2399266137532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>363.5488500258751</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>266.4341526224338</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
         <v>413.427918235523</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>150.2157824119305</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>52.22163426465083</v>
+        <v>52.22163426465082</v>
       </c>
       <c r="S35" t="n">
-        <v>173.3506718757211</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.7190937171522</v>
       </c>
       <c r="U35" t="n">
         <v>251.3636158030798</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>103.0893837360689</v>
       </c>
       <c r="I36" t="n">
-        <v>60.21876393749628</v>
+        <v>60.21876393749627</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>195.3053710947388</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6069513738357</v>
+        <v>224.6069513738368</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>43.58840445322355</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3468,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>26.16653667524002</v>
+        <v>26.16653667524001</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>105.7671883227924</v>
       </c>
       <c r="T37" t="n">
-        <v>225.5977730478223</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.017359417315</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.6537221029706</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.427918235523</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>150.2157824119305</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>52.22163426465083</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>108.2435731128079</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3636158030798</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>101.1932754440084</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>103.0893837360689</v>
       </c>
       <c r="I39" t="n">
-        <v>60.21876393749628</v>
+        <v>60.21876393749627</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>154.7812264787685</v>
       </c>
       <c r="T39" t="n">
-        <v>195.3053710947397</v>
+        <v>195.3053710947388</v>
       </c>
       <c r="U39" t="n">
         <v>224.6069513738357</v>
@@ -3705,25 +3705,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>26.16653667524002</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>144.6128683092126</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>211.2033508485612</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.5977730478223</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>81.85486236251191</v>
+        <v>286.017359417315</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>117.3254549386174</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>206.1794300628458</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
@@ -3757,7 +3757,7 @@
         <v>413.427918235523</v>
       </c>
       <c r="H41" t="n">
-        <v>323.5312048257193</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3636158030798</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>193.6798658560809</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>103.0893837360689</v>
       </c>
       <c r="I42" t="n">
-        <v>60.21876393749628</v>
+        <v>60.21876393749627</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>91.95676740136591</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>134.5109632703586</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>26.16653667524002</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>211.2033508485612</v>
       </c>
       <c r="T43" t="n">
-        <v>225.5977730478223</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>57.62850023701277</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>381.0391043545768</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>256.9212372521144</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.427918235523</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.5312048257193</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>52.22163426465083</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>173.3506718757211</v>
@@ -4036,7 +4036,7 @@
         <v>251.3636158030798</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
         <v>350.5301170005546</v>
@@ -4045,7 +4045,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>103.0893837360689</v>
       </c>
       <c r="I45" t="n">
-        <v>60.21876393749628</v>
+        <v>60.21876393749627</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,19 +4146,19 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.2495544113732</v>
       </c>
       <c r="H46" t="n">
-        <v>15.97071748873541</v>
+        <v>155.9435832878013</v>
       </c>
       <c r="I46" t="n">
         <v>134.5109632703586</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>43.58840445322355</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>26.16653667524001</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.017359417315</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>15.81732773554696</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="C2" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="D2" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="F2" t="n">
-        <v>7.951047947676434</v>
+        <v>8.616984447234429</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5835090784432668</v>
+        <v>1.249445578001263</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5835090784432668</v>
+        <v>1.249445578001263</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5835090784432668</v>
+        <v>1.249445578001263</v>
       </c>
       <c r="J2" t="n">
         <v>0.5835090784432668</v>
       </c>
       <c r="K2" t="n">
-        <v>7.804433924178694</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="L2" t="n">
-        <v>7.804433924178694</v>
+        <v>7.512679384957064</v>
       </c>
       <c r="M2" t="n">
-        <v>10.714656998567</v>
+        <v>14.73360423069249</v>
       </c>
       <c r="N2" t="n">
-        <v>10.714656998567</v>
+        <v>21.95452907642792</v>
       </c>
       <c r="O2" t="n">
-        <v>17.93558184430243</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="P2" t="n">
-        <v>25.15650669003785</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="Q2" t="n">
         <v>29.17545392216334</v>
       </c>
       <c r="R2" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="S2" t="n">
-        <v>29.17545392216334</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="T2" t="n">
-        <v>29.17545392216334</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="U2" t="n">
-        <v>29.17545392216334</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="V2" t="n">
-        <v>29.17545392216334</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="W2" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="X2" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="C3" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="F3" t="n">
         <v>22.68612568614277</v>
       </c>
-      <c r="C3" t="n">
+      <c r="G3" t="n">
         <v>15.3185868169096</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.951047947676434</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.951047947676434</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7.951047947676434</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7.951047947676434</v>
       </c>
       <c r="H3" t="n">
         <v>7.951047947676434</v>
@@ -4409,25 +4409,25 @@
         <v>0.5835090784432668</v>
       </c>
       <c r="J3" t="n">
-        <v>7.512679384957064</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="K3" t="n">
-        <v>14.73360423069249</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="L3" t="n">
-        <v>14.73360423069249</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="M3" t="n">
-        <v>14.73360423069249</v>
+        <v>15.02535876991412</v>
       </c>
       <c r="N3" t="n">
-        <v>14.73360423069249</v>
+        <v>22.24628361564955</v>
       </c>
       <c r="O3" t="n">
-        <v>21.95452907642792</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="P3" t="n">
-        <v>21.95452907642792</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="Q3" t="n">
         <v>29.17545392216334</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.17545392216334</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="C4" t="n">
-        <v>29.17545392216334</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="D4" t="n">
-        <v>21.80791505293017</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="E4" t="n">
-        <v>15.3185868169096</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="F4" t="n">
-        <v>7.951047947676434</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="G4" t="n">
-        <v>7.951047947676434</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="H4" t="n">
         <v>0.5835090784432668</v>
@@ -4497,43 +4497,43 @@
         <v>7.804433924178694</v>
       </c>
       <c r="M4" t="n">
-        <v>8.672802550995488</v>
+        <v>15.02535876991412</v>
       </c>
       <c r="N4" t="n">
-        <v>15.89372739673091</v>
+        <v>22.24628361564955</v>
       </c>
       <c r="O4" t="n">
-        <v>23.11465224246634</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="P4" t="n">
         <v>29.17545392216334</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="R4" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="S4" t="n">
-        <v>29.17545392216334</v>
+        <v>14.440376183697</v>
       </c>
       <c r="T4" t="n">
-        <v>29.17545392216334</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="U4" t="n">
-        <v>29.17545392216334</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="V4" t="n">
-        <v>29.17545392216334</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="W4" t="n">
-        <v>29.17545392216334</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="X4" t="n">
-        <v>29.17545392216334</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.17545392216334</v>
+        <v>7.072837314463837</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="C5" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="D5" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="E5" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="F5" t="n">
-        <v>7.951047947676434</v>
+        <v>8.616984447234429</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5835090784432668</v>
+        <v>1.249445578001263</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5835090784432668</v>
+        <v>1.249445578001263</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5835090784432668</v>
+        <v>1.249445578001263</v>
       </c>
       <c r="J5" t="n">
         <v>0.5835090784432668</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="L5" t="n">
-        <v>3.493732152831573</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="M5" t="n">
-        <v>3.493732152831573</v>
+        <v>10.714656998567</v>
       </c>
       <c r="N5" t="n">
-        <v>10.714656998567</v>
+        <v>17.93558184430243</v>
       </c>
       <c r="O5" t="n">
         <v>17.93558184430243</v>
@@ -4594,25 +4594,25 @@
         <v>29.17545392216334</v>
       </c>
       <c r="S5" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="T5" t="n">
-        <v>22.68612568614277</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="U5" t="n">
-        <v>22.68612568614277</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="V5" t="n">
-        <v>22.68612568614277</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="W5" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="X5" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5835090784432668</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5835090784432668</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5835090784432668</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5835090784432668</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5835090784432668</v>
+        <v>22.68612568614277</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5835090784432668</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="I6" t="n">
         <v>0.5835090784432668</v>
       </c>
       <c r="J6" t="n">
-        <v>7.804433924178694</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="K6" t="n">
+        <v>7.512679384957064</v>
+      </c>
+      <c r="L6" t="n">
         <v>14.73360423069249</v>
-      </c>
-      <c r="L6" t="n">
-        <v>21.95452907642792</v>
       </c>
       <c r="M6" t="n">
         <v>21.95452907642792</v>
       </c>
       <c r="N6" t="n">
-        <v>21.95452907642792</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="O6" t="n">
         <v>29.17545392216334</v>
@@ -4673,25 +4673,25 @@
         <v>29.17545392216334</v>
       </c>
       <c r="S6" t="n">
-        <v>22.68612568614277</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="T6" t="n">
-        <v>22.68612568614277</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="U6" t="n">
-        <v>15.3185868169096</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="V6" t="n">
-        <v>7.951047947676434</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5835090784432668</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5835090784432668</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5835090784432668</v>
+        <v>29.17545392216334</v>
       </c>
     </row>
     <row r="7">
@@ -4755,13 +4755,13 @@
         <v>7.072837314463837</v>
       </c>
       <c r="T7" t="n">
-        <v>7.072837314463837</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="U7" t="n">
-        <v>7.072837314463837</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="V7" t="n">
-        <v>7.072837314463837</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="W7" t="n">
         <v>0.5835090784432668</v>
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="C8" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="D8" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="E8" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="F8" t="n">
-        <v>7.951047947676434</v>
+        <v>8.616984447234429</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5835090784432668</v>
+        <v>1.249445578001263</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5835090784432668</v>
+        <v>1.249445578001263</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5835090784432668</v>
+        <v>1.249445578001263</v>
       </c>
       <c r="J8" t="n">
         <v>0.5835090784432668</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="L8" t="n">
-        <v>7.804433924178694</v>
+        <v>15.02535876991412</v>
       </c>
       <c r="M8" t="n">
-        <v>15.02535876991412</v>
+        <v>22.24628361564955</v>
       </c>
       <c r="N8" t="n">
-        <v>22.24628361564955</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="O8" t="n">
-        <v>22.24628361564955</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="P8" t="n">
         <v>29.17545392216334</v>
@@ -4828,28 +4828,28 @@
         <v>29.17545392216334</v>
       </c>
       <c r="R8" t="n">
-        <v>22.68612568614277</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="S8" t="n">
-        <v>22.68612568614277</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="T8" t="n">
-        <v>22.68612568614277</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="U8" t="n">
-        <v>22.68612568614277</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="V8" t="n">
-        <v>22.68612568614277</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="W8" t="n">
-        <v>22.68612568614277</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="X8" t="n">
-        <v>22.68612568614277</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="Y8" t="n">
-        <v>22.68612568614277</v>
+        <v>15.9845233164676</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5835090784432668</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5835090784432668</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5835090784432668</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5835090784432668</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5835090784432668</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5835090784432668</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="I9" t="n">
         <v>0.5835090784432668</v>
@@ -4886,19 +4886,19 @@
         <v>7.804433924178694</v>
       </c>
       <c r="K9" t="n">
-        <v>15.02535876991412</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="L9" t="n">
-        <v>15.02535876991412</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="M9" t="n">
-        <v>15.02535876991412</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="N9" t="n">
-        <v>15.02535876991412</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="O9" t="n">
-        <v>21.95452907642792</v>
+        <v>14.73360423069249</v>
       </c>
       <c r="P9" t="n">
         <v>21.95452907642792</v>
@@ -4916,19 +4916,19 @@
         <v>21.80791505293017</v>
       </c>
       <c r="U9" t="n">
-        <v>14.440376183697</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="V9" t="n">
-        <v>14.440376183697</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="W9" t="n">
-        <v>14.440376183697</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="X9" t="n">
-        <v>7.072837314463837</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5835090784432668</v>
+        <v>21.80791505293017</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.80791505293017</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="C10" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="D10" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="E10" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="F10" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="G10" t="n">
+        <v>22.68612568614277</v>
+      </c>
+      <c r="H10" t="n">
+        <v>22.68612568614277</v>
+      </c>
+      <c r="I10" t="n">
         <v>15.3185868169096</v>
-      </c>
-      <c r="D10" t="n">
-        <v>15.3185868169096</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.951047947676434</v>
-      </c>
-      <c r="F10" t="n">
-        <v>7.951047947676434</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.951047947676434</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7.951047947676434</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7.951047947676434</v>
       </c>
       <c r="J10" t="n">
         <v>7.951047947676434</v>
@@ -4986,28 +4986,28 @@
         <v>29.17545392216334</v>
       </c>
       <c r="R10" t="n">
-        <v>21.80791505293017</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="S10" t="n">
-        <v>21.80791505293017</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="T10" t="n">
-        <v>21.80791505293017</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="U10" t="n">
-        <v>21.80791505293017</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="V10" t="n">
-        <v>21.80791505293017</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="W10" t="n">
-        <v>21.80791505293017</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="X10" t="n">
-        <v>21.80791505293017</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.80791505293017</v>
+        <v>29.17545392216334</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1368.525854186663</v>
+        <v>1340.083591450771</v>
       </c>
       <c r="C11" t="n">
-        <v>1368.525854186663</v>
+        <v>1340.083591450771</v>
       </c>
       <c r="D11" t="n">
-        <v>1368.525854186663</v>
+        <v>979.8767906885503</v>
       </c>
       <c r="E11" t="n">
-        <v>1360.989633714303</v>
+        <v>592.8888757842194</v>
       </c>
       <c r="F11" t="n">
-        <v>949.5816908046656</v>
+        <v>592.8888757842194</v>
       </c>
       <c r="G11" t="n">
-        <v>531.9777329910061</v>
+        <v>175.2849179705598</v>
       </c>
       <c r="H11" t="n">
-        <v>205.1785361973503</v>
+        <v>175.2849179705598</v>
       </c>
       <c r="I11" t="n">
-        <v>53.44542264994566</v>
+        <v>53.44542264994565</v>
       </c>
       <c r="J11" t="n">
         <v>172.6835894393966</v>
@@ -5050,10 +5050,10 @@
         <v>899.033252001298</v>
       </c>
       <c r="M11" t="n">
-        <v>1315.578125513598</v>
+        <v>1387.547143526631</v>
       </c>
       <c r="N11" t="n">
-        <v>1796.479507537091</v>
+        <v>1868.448525550123</v>
       </c>
       <c r="O11" t="n">
         <v>2204.452694461389</v>
@@ -5062,31 +5062,31 @@
         <v>2515.709577540005</v>
       </c>
       <c r="Q11" t="n">
-        <v>2672.271132497283</v>
+        <v>2672.271132497282</v>
       </c>
       <c r="R11" t="n">
-        <v>2619.522006977434</v>
+        <v>2619.522006977433</v>
       </c>
       <c r="S11" t="n">
-        <v>2619.522006977434</v>
+        <v>2619.522006977433</v>
       </c>
       <c r="T11" t="n">
-        <v>2400.613831505563</v>
+        <v>2400.613831505562</v>
       </c>
       <c r="U11" t="n">
-        <v>2146.71118928023</v>
+        <v>2400.613831505562</v>
       </c>
       <c r="V11" t="n">
-        <v>2146.71118928023</v>
+        <v>2068.762092593926</v>
       </c>
       <c r="W11" t="n">
-        <v>2146.71118928023</v>
+        <v>1714.691267340841</v>
       </c>
       <c r="X11" t="n">
-        <v>2146.71118928023</v>
+        <v>1340.083591450771</v>
       </c>
       <c r="Y11" t="n">
-        <v>1756.118187511304</v>
+        <v>1340.083591450771</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>977.9359283390583</v>
+        <v>977.9359283390575</v>
       </c>
       <c r="C12" t="n">
-        <v>805.1828132608755</v>
+        <v>805.1828132608746</v>
       </c>
       <c r="D12" t="n">
-        <v>657.5945066198194</v>
+        <v>657.5945066198185</v>
       </c>
       <c r="E12" t="n">
-        <v>499.9849776226741</v>
+        <v>499.9849776226731</v>
       </c>
       <c r="F12" t="n">
-        <v>355.0291876392901</v>
+        <v>355.0291876392899</v>
       </c>
       <c r="G12" t="n">
-        <v>218.4031475727387</v>
+        <v>218.4031475727384</v>
       </c>
       <c r="H12" t="n">
-        <v>114.2724569302449</v>
+        <v>114.272456930245</v>
       </c>
       <c r="I12" t="n">
-        <v>53.44542264994566</v>
+        <v>53.44542264994565</v>
       </c>
       <c r="J12" t="n">
         <v>132.2449031084047</v>
@@ -5129,7 +5129,7 @@
         <v>805.7128985867861</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.695742474111</v>
+        <v>1339.509484158625</v>
       </c>
       <c r="N12" t="n">
         <v>1704.019067308155</v>
@@ -5141,31 +5141,31 @@
         <v>2494.616238220045</v>
       </c>
       <c r="Q12" t="n">
-        <v>2672.271132497283</v>
+        <v>2672.271132497282</v>
       </c>
       <c r="R12" t="n">
         <v>2624.498083262702</v>
       </c>
       <c r="S12" t="n">
-        <v>2468.153410051825</v>
+        <v>2468.153410051824</v>
       </c>
       <c r="T12" t="n">
         <v>2270.875257430876</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.999548972457</v>
+        <v>2043.999548972456</v>
       </c>
       <c r="V12" t="n">
-        <v>1809.748305498057</v>
+        <v>1809.748305498056</v>
       </c>
       <c r="W12" t="n">
-        <v>1557.233813831391</v>
+        <v>1557.23381383139</v>
       </c>
       <c r="X12" t="n">
-        <v>1350.706915236968</v>
+        <v>1350.706915236967</v>
       </c>
       <c r="Y12" t="n">
-        <v>1144.978479460619</v>
+        <v>1144.978479460618</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.44542264994566</v>
+        <v>222.3843664998176</v>
       </c>
       <c r="C13" t="n">
-        <v>53.44542264994566</v>
+        <v>222.3843664998176</v>
       </c>
       <c r="D13" t="n">
-        <v>53.44542264994566</v>
+        <v>222.3843664998176</v>
       </c>
       <c r="E13" t="n">
-        <v>53.44542264994566</v>
+        <v>222.3843664998176</v>
       </c>
       <c r="F13" t="n">
-        <v>53.44542264994566</v>
+        <v>222.3843664998176</v>
       </c>
       <c r="G13" t="n">
-        <v>53.44542264994566</v>
+        <v>53.44542264994565</v>
       </c>
       <c r="H13" t="n">
-        <v>53.44542264994566</v>
+        <v>53.44542264994565</v>
       </c>
       <c r="I13" t="n">
-        <v>53.44542264994566</v>
+        <v>53.44542264994565</v>
       </c>
       <c r="J13" t="n">
-        <v>53.44542264994566</v>
+        <v>53.44542264994565</v>
       </c>
       <c r="K13" t="n">
         <v>112.4355273741755</v>
@@ -5223,28 +5223,28 @@
         <v>749.8448077442366</v>
       </c>
       <c r="R13" t="n">
-        <v>749.8448077442366</v>
+        <v>603.7712033914967</v>
       </c>
       <c r="S13" t="n">
-        <v>536.508089715387</v>
+        <v>603.7712033914967</v>
       </c>
       <c r="T13" t="n">
-        <v>342.3518463037993</v>
+        <v>603.7712033914967</v>
       </c>
       <c r="U13" t="n">
-        <v>53.44542264994566</v>
+        <v>443.3426229319067</v>
       </c>
       <c r="V13" t="n">
-        <v>53.44542264994566</v>
+        <v>443.3426229319067</v>
       </c>
       <c r="W13" t="n">
-        <v>53.44542264994566</v>
+        <v>443.3426229319067</v>
       </c>
       <c r="X13" t="n">
-        <v>53.44542264994566</v>
+        <v>443.3426229319067</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.44542264994566</v>
+        <v>222.3843664998176</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1815.910000098676</v>
+        <v>1303.592476662864</v>
       </c>
       <c r="C14" t="n">
-        <v>1545.043292923812</v>
+        <v>1303.592476662864</v>
       </c>
       <c r="D14" t="n">
-        <v>1184.836492161592</v>
+        <v>943.3856759006433</v>
       </c>
       <c r="E14" t="n">
-        <v>797.848577257261</v>
+        <v>943.3856759006433</v>
       </c>
       <c r="F14" t="n">
-        <v>797.848577257261</v>
+        <v>531.9777329910061</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2446194436015</v>
+        <v>531.9777329910061</v>
       </c>
       <c r="H14" t="n">
-        <v>53.44542264994566</v>
+        <v>205.1785361973503</v>
       </c>
       <c r="I14" t="n">
         <v>53.44542264994566</v>
@@ -5284,13 +5284,13 @@
         <v>473.6672848823002</v>
       </c>
       <c r="L14" t="n">
-        <v>827.0642339882656</v>
+        <v>899.033252001298</v>
       </c>
       <c r="M14" t="n">
-        <v>1315.578125513598</v>
+        <v>1387.547143526631</v>
       </c>
       <c r="N14" t="n">
-        <v>1796.479507537091</v>
+        <v>1868.448525550123</v>
       </c>
       <c r="O14" t="n">
         <v>2204.452694461389</v>
@@ -5308,22 +5308,22 @@
         <v>2444.420318214079</v>
       </c>
       <c r="T14" t="n">
-        <v>2444.420318214079</v>
+        <v>2225.512142742208</v>
       </c>
       <c r="U14" t="n">
-        <v>2190.517675988746</v>
+        <v>2225.512142742208</v>
       </c>
       <c r="V14" t="n">
-        <v>2190.517675988746</v>
+        <v>2225.512142742208</v>
       </c>
       <c r="W14" t="n">
-        <v>2190.517675988746</v>
+        <v>2068.793154321859</v>
       </c>
       <c r="X14" t="n">
-        <v>1815.910000098676</v>
+        <v>1694.185478431789</v>
       </c>
       <c r="Y14" t="n">
-        <v>1815.910000098676</v>
+        <v>1303.592476662864</v>
       </c>
     </row>
     <row r="15">
@@ -5333,55 +5333,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>977.9359283390575</v>
+        <v>977.9359283390577</v>
       </c>
       <c r="C15" t="n">
-        <v>805.1828132608746</v>
+        <v>805.1828132608747</v>
       </c>
       <c r="D15" t="n">
         <v>657.5945066198185</v>
       </c>
       <c r="E15" t="n">
-        <v>499.9849776226732</v>
+        <v>499.9849776226731</v>
       </c>
       <c r="F15" t="n">
         <v>355.0291876392901</v>
       </c>
       <c r="G15" t="n">
-        <v>218.4031475727387</v>
+        <v>218.4031475727384</v>
       </c>
       <c r="H15" t="n">
-        <v>114.2724569302449</v>
+        <v>114.272456930245</v>
       </c>
       <c r="I15" t="n">
         <v>53.44542264994566</v>
       </c>
       <c r="J15" t="n">
-        <v>132.2449031084047</v>
+        <v>53.44542264994566</v>
       </c>
       <c r="K15" t="n">
-        <v>393.5313794407792</v>
+        <v>314.7318989823202</v>
       </c>
       <c r="L15" t="n">
-        <v>805.7128985867861</v>
+        <v>726.9134181283271</v>
       </c>
       <c r="M15" t="n">
-        <v>1339.509484158625</v>
+        <v>1260.710003700166</v>
       </c>
       <c r="N15" t="n">
-        <v>1704.019067308155</v>
+        <v>1824.03332853421</v>
       </c>
       <c r="O15" t="n">
-        <v>2151.72183669357</v>
+        <v>2271.736097919626</v>
       </c>
       <c r="P15" t="n">
-        <v>2494.616238220045</v>
+        <v>2614.630499446101</v>
       </c>
       <c r="Q15" t="n">
         <v>2672.271132497283</v>
       </c>
       <c r="R15" t="n">
-        <v>2624.498083262701</v>
+        <v>2624.498083262702</v>
       </c>
       <c r="S15" t="n">
         <v>2468.153410051824</v>
@@ -5399,7 +5399,7 @@
         <v>1557.23381383139</v>
       </c>
       <c r="X15" t="n">
-        <v>1350.706915236967</v>
+        <v>1350.706915236968</v>
       </c>
       <c r="Y15" t="n">
         <v>1144.978479460618</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210.9641936477248</v>
+        <v>53.44542264994566</v>
       </c>
       <c r="C16" t="n">
-        <v>210.9641936477248</v>
+        <v>53.44542264994566</v>
       </c>
       <c r="D16" t="n">
-        <v>210.9641936477248</v>
+        <v>53.44542264994566</v>
       </c>
       <c r="E16" t="n">
-        <v>210.9641936477248</v>
+        <v>53.44542264994566</v>
       </c>
       <c r="F16" t="n">
-        <v>210.9641936477248</v>
+        <v>53.44542264994566</v>
       </c>
       <c r="G16" t="n">
-        <v>210.9641936477248</v>
+        <v>53.44542264994566</v>
       </c>
       <c r="H16" t="n">
         <v>53.44542264994566</v>
@@ -5460,28 +5460,28 @@
         <v>749.8448077442366</v>
       </c>
       <c r="R16" t="n">
-        <v>603.7712033914967</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="S16" t="n">
-        <v>603.7712033914967</v>
+        <v>537.3612923461562</v>
       </c>
       <c r="T16" t="n">
-        <v>603.7712033914967</v>
+        <v>537.3612923461562</v>
       </c>
       <c r="U16" t="n">
-        <v>603.7712033914967</v>
+        <v>537.3612923461562</v>
       </c>
       <c r="V16" t="n">
-        <v>603.7712033914967</v>
+        <v>281.8700286421773</v>
       </c>
       <c r="W16" t="n">
-        <v>314.7888024951174</v>
+        <v>281.8700286421773</v>
       </c>
       <c r="X16" t="n">
-        <v>210.9641936477248</v>
+        <v>53.44542264994566</v>
       </c>
       <c r="Y16" t="n">
-        <v>210.9641936477248</v>
+        <v>53.44542264994566</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1356.310540454781</v>
+        <v>2000.34405487711</v>
       </c>
       <c r="C17" t="n">
-        <v>985.6185246174656</v>
+        <v>1629.652039039794</v>
       </c>
       <c r="D17" t="n">
-        <v>985.6185246174656</v>
+        <v>1269.445238277573</v>
       </c>
       <c r="E17" t="n">
-        <v>598.6306097131348</v>
+        <v>882.4573233732425</v>
       </c>
       <c r="F17" t="n">
-        <v>598.6306097131348</v>
+        <v>471.0493804636052</v>
       </c>
       <c r="G17" t="n">
-        <v>181.0266518994753</v>
+        <v>53.44542264994566</v>
       </c>
       <c r="H17" t="n">
-        <v>181.0266518994753</v>
+        <v>53.44542264994566</v>
       </c>
       <c r="I17" t="n">
         <v>53.44542264994566</v>
       </c>
       <c r="J17" t="n">
-        <v>172.6835894393966</v>
+        <v>100.7145714263643</v>
       </c>
       <c r="K17" t="n">
-        <v>473.6672848823002</v>
+        <v>401.6982668692679</v>
       </c>
       <c r="L17" t="n">
         <v>827.0642339882656</v>
@@ -5539,28 +5539,28 @@
         <v>2672.271132497283</v>
       </c>
       <c r="R17" t="n">
-        <v>2672.271132497283</v>
+        <v>2619.522006977434</v>
       </c>
       <c r="S17" t="n">
-        <v>2672.271132497283</v>
+        <v>2444.420318214079</v>
       </c>
       <c r="T17" t="n">
-        <v>2453.362957025412</v>
+        <v>2225.512142742208</v>
       </c>
       <c r="U17" t="n">
-        <v>2453.362957025412</v>
+        <v>2225.512142742208</v>
       </c>
       <c r="V17" t="n">
-        <v>2121.511218113777</v>
+        <v>2225.512142742208</v>
       </c>
       <c r="W17" t="n">
-        <v>2121.511218113777</v>
+        <v>2225.512142742208</v>
       </c>
       <c r="X17" t="n">
-        <v>1746.903542223706</v>
+        <v>2225.512142742208</v>
       </c>
       <c r="Y17" t="n">
-        <v>1356.310540454781</v>
+        <v>2225.512142742208</v>
       </c>
     </row>
     <row r="18">
@@ -5585,10 +5585,10 @@
         <v>355.0291876392901</v>
       </c>
       <c r="G18" t="n">
-        <v>218.4031475727388</v>
+        <v>218.4031475727384</v>
       </c>
       <c r="H18" t="n">
-        <v>114.272456930245</v>
+        <v>114.2724569302449</v>
       </c>
       <c r="I18" t="n">
         <v>53.44542264994566</v>
@@ -5603,7 +5603,7 @@
         <v>805.7128985867861</v>
       </c>
       <c r="M18" t="n">
-        <v>1339.509484158625</v>
+        <v>1140.695742474111</v>
       </c>
       <c r="N18" t="n">
         <v>1704.019067308155</v>
@@ -5621,7 +5621,7 @@
         <v>2624.498083262702</v>
       </c>
       <c r="S18" t="n">
-        <v>2468.153410051825</v>
+        <v>2468.153410051824</v>
       </c>
       <c r="T18" t="n">
         <v>2270.875257430876</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.44542264994566</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="C19" t="n">
-        <v>53.44542264994566</v>
+        <v>580.817986601608</v>
       </c>
       <c r="D19" t="n">
-        <v>53.44542264994566</v>
+        <v>430.3073133546188</v>
       </c>
       <c r="E19" t="n">
-        <v>53.44542264994566</v>
+        <v>281.848097018054</v>
       </c>
       <c r="F19" t="n">
-        <v>53.44542264994566</v>
+        <v>134.2127218566353</v>
       </c>
       <c r="G19" t="n">
         <v>53.44542264994566</v>
@@ -5697,28 +5697,28 @@
         <v>749.8448077442366</v>
       </c>
       <c r="R19" t="n">
-        <v>603.7712033914967</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="S19" t="n">
-        <v>603.7712033914967</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="T19" t="n">
-        <v>603.7712033914967</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="U19" t="n">
-        <v>314.8647797376431</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="V19" t="n">
-        <v>314.8647797376431</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="W19" t="n">
-        <v>53.44542264994566</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="X19" t="n">
-        <v>53.44542264994566</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.44542264994566</v>
+        <v>749.8448077442366</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>911.0792604620826</v>
+        <v>2061.27240740451</v>
       </c>
       <c r="C20" t="n">
-        <v>540.3872446247668</v>
+        <v>1690.580391567195</v>
       </c>
       <c r="D20" t="n">
-        <v>540.3872446247668</v>
+        <v>1330.373590804974</v>
       </c>
       <c r="E20" t="n">
-        <v>540.3872446247668</v>
+        <v>943.3856759006433</v>
       </c>
       <c r="F20" t="n">
-        <v>540.3872446247668</v>
+        <v>531.9777329910061</v>
       </c>
       <c r="G20" t="n">
-        <v>122.7832868111072</v>
+        <v>531.9777329910061</v>
       </c>
       <c r="H20" t="n">
-        <v>53.44542264994564</v>
+        <v>205.1785361973503</v>
       </c>
       <c r="I20" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994567</v>
       </c>
       <c r="J20" t="n">
-        <v>172.6835894393966</v>
+        <v>172.6835894393967</v>
       </c>
       <c r="K20" t="n">
         <v>473.6672848823002</v>
       </c>
       <c r="L20" t="n">
-        <v>899.0332520012978</v>
+        <v>899.033252001298</v>
       </c>
       <c r="M20" t="n">
-        <v>1387.54714352663</v>
+        <v>1387.547143526631</v>
       </c>
       <c r="N20" t="n">
-        <v>1796.47950753709</v>
+        <v>1868.448525550123</v>
       </c>
       <c r="O20" t="n">
-        <v>2204.452694461388</v>
+        <v>2276.421712474421</v>
       </c>
       <c r="P20" t="n">
-        <v>2515.709577540004</v>
+        <v>2587.678595553038</v>
       </c>
       <c r="Q20" t="n">
-        <v>2672.271132497282</v>
+        <v>2672.271132497283</v>
       </c>
       <c r="R20" t="n">
-        <v>2619.522006977433</v>
+        <v>2619.522006977434</v>
       </c>
       <c r="S20" t="n">
-        <v>2444.420318214078</v>
+        <v>2444.42031821408</v>
       </c>
       <c r="T20" t="n">
-        <v>2225.512142742207</v>
+        <v>2225.512142742209</v>
       </c>
       <c r="U20" t="n">
-        <v>1971.609500516874</v>
+        <v>2225.512142742209</v>
       </c>
       <c r="V20" t="n">
-        <v>1639.757761605238</v>
+        <v>2225.512142742209</v>
       </c>
       <c r="W20" t="n">
-        <v>1285.686936352153</v>
+        <v>2225.512142742209</v>
       </c>
       <c r="X20" t="n">
-        <v>911.0792604620826</v>
+        <v>2061.27240740451</v>
       </c>
       <c r="Y20" t="n">
-        <v>911.0792604620826</v>
+        <v>2061.27240740451</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>977.9359283390573</v>
+        <v>977.9359283390575</v>
       </c>
       <c r="C21" t="n">
         <v>805.1828132608746</v>
@@ -5822,13 +5822,13 @@
         <v>355.0291876392901</v>
       </c>
       <c r="G21" t="n">
-        <v>218.4031475727387</v>
+        <v>218.4031475727388</v>
       </c>
       <c r="H21" t="n">
         <v>114.2724569302449</v>
       </c>
       <c r="I21" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994567</v>
       </c>
       <c r="J21" t="n">
         <v>132.2449031084047</v>
@@ -5837,7 +5837,7 @@
         <v>393.5313794407792</v>
       </c>
       <c r="L21" t="n">
-        <v>805.712898586786</v>
+        <v>805.7128985867861</v>
       </c>
       <c r="M21" t="n">
         <v>1339.509484158625</v>
@@ -5846,31 +5846,31 @@
         <v>1902.832808992669</v>
       </c>
       <c r="O21" t="n">
-        <v>2151.721836693569</v>
+        <v>2350.535578378084</v>
       </c>
       <c r="P21" t="n">
-        <v>2494.616238220045</v>
+        <v>2672.271132497283</v>
       </c>
       <c r="Q21" t="n">
-        <v>2672.271132497282</v>
+        <v>2672.271132497283</v>
       </c>
       <c r="R21" t="n">
-        <v>2624.498083262701</v>
+        <v>2624.498083262702</v>
       </c>
       <c r="S21" t="n">
-        <v>2468.153410051824</v>
+        <v>2468.153410051825</v>
       </c>
       <c r="T21" t="n">
-        <v>2270.875257430876</v>
+        <v>2270.875257430877</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.999548972456</v>
+        <v>2043.999548972457</v>
       </c>
       <c r="V21" t="n">
-        <v>1809.748305498056</v>
+        <v>1809.748305498058</v>
       </c>
       <c r="W21" t="n">
-        <v>1557.23381383139</v>
+        <v>1557.233813831391</v>
       </c>
       <c r="X21" t="n">
         <v>1350.706915236967</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994567</v>
       </c>
       <c r="C22" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994567</v>
       </c>
       <c r="D22" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994567</v>
       </c>
       <c r="E22" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994567</v>
       </c>
       <c r="F22" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994567</v>
       </c>
       <c r="G22" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994567</v>
       </c>
       <c r="H22" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994567</v>
       </c>
       <c r="I22" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994567</v>
       </c>
       <c r="J22" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994567</v>
       </c>
       <c r="K22" t="n">
         <v>112.4355273741755</v>
@@ -5919,7 +5919,7 @@
         <v>243.7261669754054</v>
       </c>
       <c r="M22" t="n">
-        <v>392.7466377512533</v>
+        <v>392.7466377512534</v>
       </c>
       <c r="N22" t="n">
         <v>543.3649967040217</v>
@@ -5934,28 +5934,28 @@
         <v>749.8448077442366</v>
       </c>
       <c r="R22" t="n">
-        <v>603.7712033914967</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="S22" t="n">
-        <v>390.434485362647</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="T22" t="n">
-        <v>162.5579469305032</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="U22" t="n">
-        <v>162.5579469305032</v>
+        <v>460.938384090383</v>
       </c>
       <c r="V22" t="n">
-        <v>53.44542264994564</v>
+        <v>342.427823546325</v>
       </c>
       <c r="W22" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994567</v>
       </c>
       <c r="X22" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994567</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994567</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>812.8322076477151</v>
+        <v>1641.606009584543</v>
       </c>
       <c r="C23" t="n">
-        <v>812.8322076477151</v>
+        <v>1270.913993747227</v>
       </c>
       <c r="D23" t="n">
-        <v>452.6254068854945</v>
+        <v>1270.913993747227</v>
       </c>
       <c r="E23" t="n">
-        <v>452.6254068854945</v>
+        <v>883.9260788428962</v>
       </c>
       <c r="F23" t="n">
-        <v>452.6254068854945</v>
+        <v>472.518135933259</v>
       </c>
       <c r="G23" t="n">
-        <v>206.647291667004</v>
+        <v>54.91417811959938</v>
       </c>
       <c r="H23" t="n">
-        <v>206.647291667004</v>
+        <v>54.91417811959938</v>
       </c>
       <c r="I23" t="n">
         <v>54.91417811959938</v>
       </c>
       <c r="J23" t="n">
-        <v>174.1523449090505</v>
+        <v>174.1523449090503</v>
       </c>
       <c r="K23" t="n">
-        <v>475.1360403519542</v>
+        <v>475.1360403519539</v>
       </c>
       <c r="L23" t="n">
-        <v>900.5020074709519</v>
+        <v>900.5020074709516</v>
       </c>
       <c r="M23" t="n">
         <v>1389.015898996284</v>
       </c>
       <c r="N23" t="n">
-        <v>1869.917281019776</v>
+        <v>1869.917281019777</v>
       </c>
       <c r="O23" t="n">
         <v>2277.890467944075</v>
       </c>
       <c r="P23" t="n">
-        <v>2589.147351022691</v>
+        <v>2589.147351022692</v>
       </c>
       <c r="Q23" t="n">
         <v>2745.708905979969</v>
       </c>
       <c r="R23" t="n">
-        <v>2692.959780460119</v>
+        <v>2692.95978046012</v>
       </c>
       <c r="S23" t="n">
-        <v>2517.858091696765</v>
+        <v>2692.95978046012</v>
       </c>
       <c r="T23" t="n">
-        <v>2517.858091696765</v>
+        <v>2692.95978046012</v>
       </c>
       <c r="U23" t="n">
-        <v>2263.955449471432</v>
+        <v>2692.95978046012</v>
       </c>
       <c r="V23" t="n">
-        <v>1932.103710559796</v>
+        <v>2383.26916816227</v>
       </c>
       <c r="W23" t="n">
-        <v>1578.03288530671</v>
+        <v>2029.198342909184</v>
       </c>
       <c r="X23" t="n">
-        <v>1203.42520941664</v>
+        <v>2029.198342909184</v>
       </c>
       <c r="Y23" t="n">
-        <v>812.8322076477151</v>
+        <v>2029.198342909184</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>54.91417811959938</v>
       </c>
       <c r="J24" t="n">
-        <v>133.7136585780584</v>
+        <v>54.91417811959938</v>
       </c>
       <c r="K24" t="n">
-        <v>395.000134910433</v>
+        <v>316.2006544519739</v>
       </c>
       <c r="L24" t="n">
-        <v>807.1816540564398</v>
+        <v>728.3821735979808</v>
       </c>
       <c r="M24" t="n">
-        <v>1340.978239628279</v>
+        <v>1262.17875916982</v>
       </c>
       <c r="N24" t="n">
-        <v>1904.301564462323</v>
+        <v>1825.502084003864</v>
       </c>
       <c r="O24" t="n">
-        <v>2352.004333847738</v>
+        <v>2273.204853389279</v>
       </c>
       <c r="P24" t="n">
-        <v>2496.084993689698</v>
+        <v>2616.099254915754</v>
       </c>
       <c r="Q24" t="n">
         <v>2673.739887966936</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.91417811959938</v>
+        <v>223.940999262228</v>
       </c>
       <c r="C25" t="n">
         <v>54.91417811959938</v>
@@ -6159,40 +6159,40 @@
         <v>394.2153932209071</v>
       </c>
       <c r="N25" t="n">
-        <v>544.8337521736754</v>
+        <v>544.8337521736755</v>
       </c>
       <c r="O25" t="n">
-        <v>668.6175883989547</v>
+        <v>668.6175883989549</v>
       </c>
       <c r="P25" t="n">
-        <v>751.3135632138902</v>
+        <v>751.3135632138905</v>
       </c>
       <c r="Q25" t="n">
-        <v>724.8827180873851</v>
+        <v>751.3135632138905</v>
       </c>
       <c r="R25" t="n">
-        <v>724.8827180873851</v>
+        <v>751.3135632138905</v>
       </c>
       <c r="S25" t="n">
-        <v>724.8827180873851</v>
+        <v>680.2421436866033</v>
       </c>
       <c r="T25" t="n">
-        <v>724.8827180873851</v>
+        <v>452.3656052544596</v>
       </c>
       <c r="U25" t="n">
-        <v>435.9762944335315</v>
+        <v>452.3656052544596</v>
       </c>
       <c r="V25" t="n">
-        <v>435.9762944335315</v>
+        <v>452.3656052544596</v>
       </c>
       <c r="W25" t="n">
-        <v>146.9938935371522</v>
+        <v>452.3656052544596</v>
       </c>
       <c r="X25" t="n">
-        <v>54.91417811959938</v>
+        <v>223.940999262228</v>
       </c>
       <c r="Y25" t="n">
-        <v>54.91417811959938</v>
+        <v>223.940999262228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1499.600106417122</v>
+        <v>1365.249950243193</v>
       </c>
       <c r="C26" t="n">
-        <v>1128.908090579807</v>
+        <v>1365.249950243193</v>
       </c>
       <c r="D26" t="n">
-        <v>768.701289817586</v>
+        <v>1005.043149480972</v>
       </c>
       <c r="E26" t="n">
-        <v>381.7133749132552</v>
+        <v>618.0552345766412</v>
       </c>
       <c r="F26" t="n">
-        <v>381.7133749132552</v>
+        <v>206.647291667004</v>
       </c>
       <c r="G26" t="n">
-        <v>381.7133749132552</v>
+        <v>206.647291667004</v>
       </c>
       <c r="H26" t="n">
-        <v>54.91417811959938</v>
+        <v>206.647291667004</v>
       </c>
       <c r="I26" t="n">
         <v>54.91417811959938</v>
       </c>
       <c r="J26" t="n">
-        <v>174.1523449090505</v>
+        <v>174.15234490905</v>
       </c>
       <c r="K26" t="n">
-        <v>475.1360403519542</v>
+        <v>475.1360403519534</v>
       </c>
       <c r="L26" t="n">
-        <v>900.5020074709519</v>
+        <v>900.5020074709512</v>
       </c>
       <c r="M26" t="n">
         <v>1389.015898996284</v>
@@ -6244,34 +6244,34 @@
         <v>2277.890467944075</v>
       </c>
       <c r="P26" t="n">
-        <v>2589.147351022691</v>
+        <v>2589.147351022692</v>
       </c>
       <c r="Q26" t="n">
         <v>2745.708905979969</v>
       </c>
       <c r="R26" t="n">
-        <v>2692.959780460119</v>
+        <v>2692.95978046012</v>
       </c>
       <c r="S26" t="n">
-        <v>2517.858091696765</v>
+        <v>2692.95978046012</v>
       </c>
       <c r="T26" t="n">
-        <v>2298.949916224894</v>
+        <v>2692.95978046012</v>
       </c>
       <c r="U26" t="n">
-        <v>2045.047273999561</v>
+        <v>2692.95978046012</v>
       </c>
       <c r="V26" t="n">
-        <v>2045.047273999561</v>
+        <v>2692.95978046012</v>
       </c>
       <c r="W26" t="n">
-        <v>2045.047273999561</v>
+        <v>2518.042961226829</v>
       </c>
       <c r="X26" t="n">
-        <v>1670.439598109491</v>
+        <v>2143.435285336759</v>
       </c>
       <c r="Y26" t="n">
-        <v>1499.600106417122</v>
+        <v>1752.842283567834</v>
       </c>
     </row>
     <row r="27">
@@ -6305,16 +6305,16 @@
         <v>54.91417811959938</v>
       </c>
       <c r="J27" t="n">
-        <v>54.91417811959938</v>
+        <v>133.7136585780584</v>
       </c>
       <c r="K27" t="n">
-        <v>316.2006544519739</v>
+        <v>395.000134910433</v>
       </c>
       <c r="L27" t="n">
-        <v>608.3679123719254</v>
+        <v>807.1816540564398</v>
       </c>
       <c r="M27" t="n">
-        <v>1142.164497943764</v>
+        <v>1340.978239628279</v>
       </c>
       <c r="N27" t="n">
         <v>1705.487822777808</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.91417811959938</v>
+        <v>212.4329491173785</v>
       </c>
       <c r="C28" t="n">
-        <v>54.91417811959938</v>
+        <v>212.4329491173785</v>
       </c>
       <c r="D28" t="n">
-        <v>54.91417811959938</v>
+        <v>212.4329491173785</v>
       </c>
       <c r="E28" t="n">
-        <v>54.91417811959938</v>
+        <v>212.4329491173785</v>
       </c>
       <c r="F28" t="n">
-        <v>54.91417811959938</v>
+        <v>212.4329491173785</v>
       </c>
       <c r="G28" t="n">
-        <v>54.91417811959938</v>
+        <v>212.4329491173785</v>
       </c>
       <c r="H28" t="n">
         <v>54.91417811959938</v>
@@ -6396,40 +6396,40 @@
         <v>394.2153932209071</v>
       </c>
       <c r="N28" t="n">
-        <v>544.8337521736754</v>
+        <v>544.8337521736755</v>
       </c>
       <c r="O28" t="n">
-        <v>668.6175883989547</v>
+        <v>668.6175883989549</v>
       </c>
       <c r="P28" t="n">
-        <v>751.3135632138902</v>
+        <v>751.3135632138905</v>
       </c>
       <c r="Q28" t="n">
-        <v>724.8827180873851</v>
+        <v>751.3135632138905</v>
       </c>
       <c r="R28" t="n">
-        <v>599.311865477432</v>
+        <v>751.3135632138905</v>
       </c>
       <c r="S28" t="n">
-        <v>599.311865477432</v>
+        <v>537.9768451850408</v>
       </c>
       <c r="T28" t="n">
-        <v>599.311865477432</v>
+        <v>310.100306752897</v>
       </c>
       <c r="U28" t="n">
-        <v>310.4054418235784</v>
+        <v>212.4329491173785</v>
       </c>
       <c r="V28" t="n">
-        <v>54.91417811959938</v>
+        <v>212.4329491173785</v>
       </c>
       <c r="W28" t="n">
-        <v>54.91417811959938</v>
+        <v>212.4329491173785</v>
       </c>
       <c r="X28" t="n">
-        <v>54.91417811959938</v>
+        <v>212.4329491173785</v>
       </c>
       <c r="Y28" t="n">
-        <v>54.91417811959938</v>
+        <v>212.4329491173785</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>596.9247006201279</v>
+        <v>1153.328118585113</v>
       </c>
       <c r="C29" t="n">
-        <v>596.9247006201279</v>
+        <v>1153.328118585113</v>
       </c>
       <c r="D29" t="n">
-        <v>236.7178998579072</v>
+        <v>793.1213178228925</v>
       </c>
       <c r="E29" t="n">
-        <v>236.7178998579072</v>
+        <v>793.1213178228925</v>
       </c>
       <c r="F29" t="n">
-        <v>236.7178998579072</v>
+        <v>381.7133749132552</v>
       </c>
       <c r="G29" t="n">
-        <v>236.7178998579072</v>
+        <v>381.7133749132552</v>
       </c>
       <c r="H29" t="n">
         <v>54.91417811959938</v>
@@ -6463,52 +6463,52 @@
         <v>54.91417811959938</v>
       </c>
       <c r="J29" t="n">
-        <v>174.1523449090505</v>
+        <v>174.1523449090503</v>
       </c>
       <c r="K29" t="n">
-        <v>475.1360403519542</v>
+        <v>475.1360403519539</v>
       </c>
       <c r="L29" t="n">
-        <v>900.5020074709519</v>
+        <v>900.5020074709516</v>
       </c>
       <c r="M29" t="n">
         <v>1389.015898996284</v>
       </c>
       <c r="N29" t="n">
-        <v>1869.917281019776</v>
+        <v>1869.917281019777</v>
       </c>
       <c r="O29" t="n">
         <v>2277.890467944075</v>
       </c>
       <c r="P29" t="n">
-        <v>2589.147351022691</v>
+        <v>2589.147351022692</v>
       </c>
       <c r="Q29" t="n">
         <v>2745.708905979969</v>
       </c>
       <c r="R29" t="n">
-        <v>2692.959780460119</v>
+        <v>2745.708905979969</v>
       </c>
       <c r="S29" t="n">
-        <v>2517.858091696765</v>
+        <v>2745.708905979969</v>
       </c>
       <c r="T29" t="n">
-        <v>2298.949916224894</v>
+        <v>2560.023771794083</v>
       </c>
       <c r="U29" t="n">
-        <v>2045.047273999561</v>
+        <v>2306.121129568749</v>
       </c>
       <c r="V29" t="n">
-        <v>1713.195535087925</v>
+        <v>2306.121129568749</v>
       </c>
       <c r="W29" t="n">
-        <v>1359.124709834839</v>
+        <v>2306.121129568749</v>
       </c>
       <c r="X29" t="n">
-        <v>984.5170339447693</v>
+        <v>1931.51345367868</v>
       </c>
       <c r="Y29" t="n">
-        <v>984.5170339447693</v>
+        <v>1540.920451909755</v>
       </c>
     </row>
     <row r="30">
@@ -6545,7 +6545,7 @@
         <v>54.91417811959938</v>
       </c>
       <c r="K30" t="n">
-        <v>316.2006544519739</v>
+        <v>196.1863932259186</v>
       </c>
       <c r="L30" t="n">
         <v>608.3679123719254</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.91417811959938</v>
+        <v>234.5306011278931</v>
       </c>
       <c r="C31" t="n">
-        <v>54.91417811959938</v>
+        <v>234.5306011278931</v>
       </c>
       <c r="D31" t="n">
-        <v>54.91417811959938</v>
+        <v>234.5306011278931</v>
       </c>
       <c r="E31" t="n">
-        <v>54.91417811959938</v>
+        <v>234.5306011278931</v>
       </c>
       <c r="F31" t="n">
-        <v>54.91417811959938</v>
+        <v>234.5306011278931</v>
       </c>
       <c r="G31" t="n">
-        <v>54.91417811959938</v>
+        <v>65.59165727802116</v>
       </c>
       <c r="H31" t="n">
-        <v>54.91417811959938</v>
+        <v>65.59165727802116</v>
       </c>
       <c r="I31" t="n">
         <v>54.91417811959938</v>
@@ -6633,40 +6633,40 @@
         <v>394.2153932209071</v>
       </c>
       <c r="N31" t="n">
-        <v>544.8337521736754</v>
+        <v>544.8337521736755</v>
       </c>
       <c r="O31" t="n">
-        <v>668.6175883989547</v>
+        <v>668.6175883989549</v>
       </c>
       <c r="P31" t="n">
-        <v>751.3135632138902</v>
+        <v>751.3135632138905</v>
       </c>
       <c r="Q31" t="n">
-        <v>751.3135632138902</v>
+        <v>751.3135632138905</v>
       </c>
       <c r="R31" t="n">
-        <v>605.2399588611503</v>
+        <v>751.3135632138905</v>
       </c>
       <c r="S31" t="n">
-        <v>605.2399588611503</v>
+        <v>751.3135632138905</v>
       </c>
       <c r="T31" t="n">
-        <v>605.2399588611503</v>
+        <v>523.4370247817467</v>
       </c>
       <c r="U31" t="n">
-        <v>316.3335352072967</v>
+        <v>234.5306011278931</v>
       </c>
       <c r="V31" t="n">
-        <v>316.3335352072967</v>
+        <v>234.5306011278931</v>
       </c>
       <c r="W31" t="n">
-        <v>54.91417811959938</v>
+        <v>234.5306011278931</v>
       </c>
       <c r="X31" t="n">
-        <v>54.91417811959938</v>
+        <v>234.5306011278931</v>
       </c>
       <c r="Y31" t="n">
-        <v>54.91417811959938</v>
+        <v>234.5306011278931</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1613.027352060173</v>
+        <v>772.0263893834829</v>
       </c>
       <c r="C32" t="n">
-        <v>1242.335336222857</v>
+        <v>772.0263893834829</v>
       </c>
       <c r="D32" t="n">
-        <v>1242.335336222857</v>
+        <v>772.0263893834829</v>
       </c>
       <c r="E32" t="n">
-        <v>855.3474213185259</v>
+        <v>533.4464884606598</v>
       </c>
       <c r="F32" t="n">
-        <v>443.9394784088886</v>
+        <v>533.4464884606598</v>
       </c>
       <c r="G32" t="n">
-        <v>443.9394784088886</v>
+        <v>533.4464884606598</v>
       </c>
       <c r="H32" t="n">
-        <v>117.1402816152328</v>
+        <v>206.647291667004</v>
       </c>
       <c r="I32" t="n">
         <v>54.91417811959938</v>
       </c>
       <c r="J32" t="n">
-        <v>174.1523449090503</v>
+        <v>174.15234490905</v>
       </c>
       <c r="K32" t="n">
-        <v>475.1360403519539</v>
+        <v>475.1360403519534</v>
       </c>
       <c r="L32" t="n">
-        <v>900.5020074709516</v>
+        <v>900.5020074709512</v>
       </c>
       <c r="M32" t="n">
         <v>1389.015898996284</v>
@@ -6718,34 +6718,34 @@
         <v>2277.890467944075</v>
       </c>
       <c r="P32" t="n">
-        <v>2589.147351022691</v>
+        <v>2589.147351022692</v>
       </c>
       <c r="Q32" t="n">
         <v>2745.708905979969</v>
       </c>
       <c r="R32" t="n">
-        <v>2692.959780460119</v>
+        <v>2692.95978046012</v>
       </c>
       <c r="S32" t="n">
-        <v>2517.858091696765</v>
+        <v>2692.95978046012</v>
       </c>
       <c r="T32" t="n">
-        <v>2298.949916224894</v>
+        <v>2474.051604988249</v>
       </c>
       <c r="U32" t="n">
-        <v>2298.949916224894</v>
+        <v>2220.148962762916</v>
       </c>
       <c r="V32" t="n">
-        <v>1967.098177313258</v>
+        <v>1888.29722385128</v>
       </c>
       <c r="W32" t="n">
-        <v>1613.027352060173</v>
+        <v>1534.226398598194</v>
       </c>
       <c r="X32" t="n">
-        <v>1613.027352060173</v>
+        <v>1159.618722708124</v>
       </c>
       <c r="Y32" t="n">
-        <v>1613.027352060173</v>
+        <v>1159.618722708124</v>
       </c>
     </row>
     <row r="33">
@@ -6785,19 +6785,19 @@
         <v>316.2006544519739</v>
       </c>
       <c r="L33" t="n">
-        <v>608.3679123719254</v>
+        <v>728.3821735979808</v>
       </c>
       <c r="M33" t="n">
-        <v>1142.164497943764</v>
+        <v>1262.17875916982</v>
       </c>
       <c r="N33" t="n">
-        <v>1705.487822777808</v>
+        <v>1825.502084003864</v>
       </c>
       <c r="O33" t="n">
-        <v>2153.190592163223</v>
+        <v>2273.204853389279</v>
       </c>
       <c r="P33" t="n">
-        <v>2496.084993689698</v>
+        <v>2616.099254915754</v>
       </c>
       <c r="Q33" t="n">
         <v>2673.739887966936</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.91417811959938</v>
+        <v>282.4855814810618</v>
       </c>
       <c r="C34" t="n">
-        <v>54.91417811959938</v>
+        <v>113.4587603384332</v>
       </c>
       <c r="D34" t="n">
-        <v>54.91417811959938</v>
+        <v>113.4587603384332</v>
       </c>
       <c r="E34" t="n">
-        <v>54.91417811959938</v>
+        <v>113.4587603384332</v>
       </c>
       <c r="F34" t="n">
-        <v>54.91417811959938</v>
+        <v>113.4587603384332</v>
       </c>
       <c r="G34" t="n">
-        <v>54.91417811959938</v>
+        <v>113.4587603384332</v>
       </c>
       <c r="H34" t="n">
-        <v>54.91417811959938</v>
+        <v>113.4587603384332</v>
       </c>
       <c r="I34" t="n">
         <v>54.91417811959938</v>
@@ -6870,40 +6870,40 @@
         <v>394.2153932209071</v>
       </c>
       <c r="N34" t="n">
-        <v>544.8337521736754</v>
+        <v>544.8337521736755</v>
       </c>
       <c r="O34" t="n">
-        <v>668.6175883989547</v>
+        <v>668.6175883989549</v>
       </c>
       <c r="P34" t="n">
-        <v>751.3135632138902</v>
+        <v>751.3135632138905</v>
       </c>
       <c r="Q34" t="n">
-        <v>724.8827180873851</v>
+        <v>751.3135632138905</v>
       </c>
       <c r="R34" t="n">
-        <v>724.8827180873851</v>
+        <v>751.3135632138905</v>
       </c>
       <c r="S34" t="n">
-        <v>724.8827180873851</v>
+        <v>537.9768451850408</v>
       </c>
       <c r="T34" t="n">
-        <v>724.8827180873851</v>
+        <v>537.9768451850408</v>
       </c>
       <c r="U34" t="n">
-        <v>724.8827180873851</v>
+        <v>537.9768451850408</v>
       </c>
       <c r="V34" t="n">
-        <v>469.3914543834061</v>
+        <v>282.4855814810618</v>
       </c>
       <c r="W34" t="n">
-        <v>180.4090534870268</v>
+        <v>282.4855814810618</v>
       </c>
       <c r="X34" t="n">
-        <v>180.4090534870268</v>
+        <v>282.4855814810618</v>
       </c>
       <c r="Y34" t="n">
-        <v>54.91417811959938</v>
+        <v>282.4855814810618</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1471.073603752469</v>
+        <v>1404.882452757963</v>
       </c>
       <c r="C35" t="n">
-        <v>1100.381587915153</v>
+        <v>1034.190436920647</v>
       </c>
       <c r="D35" t="n">
-        <v>740.1747871529324</v>
+        <v>1034.190436920647</v>
       </c>
       <c r="E35" t="n">
-        <v>471.0493804636052</v>
+        <v>1034.190436920647</v>
       </c>
       <c r="F35" t="n">
-        <v>471.0493804636052</v>
+        <v>622.7824940110098</v>
       </c>
       <c r="G35" t="n">
-        <v>53.44542264994566</v>
+        <v>205.1785361973503</v>
       </c>
       <c r="H35" t="n">
-        <v>53.44542264994566</v>
+        <v>205.1785361973503</v>
       </c>
       <c r="I35" t="n">
-        <v>53.44542264994566</v>
+        <v>53.44542264994567</v>
       </c>
       <c r="J35" t="n">
-        <v>100.7145714263646</v>
+        <v>172.6835894393967</v>
       </c>
       <c r="K35" t="n">
-        <v>401.6982668692682</v>
+        <v>473.6672848823002</v>
       </c>
       <c r="L35" t="n">
-        <v>827.0642339882659</v>
+        <v>899.033252001298</v>
       </c>
       <c r="M35" t="n">
-        <v>1315.578125513598</v>
+        <v>1387.547143526631</v>
       </c>
       <c r="N35" t="n">
-        <v>1796.479507537091</v>
+        <v>1868.448525550123</v>
       </c>
       <c r="O35" t="n">
         <v>2204.452694461389</v>
       </c>
       <c r="P35" t="n">
-        <v>2515.709577540005</v>
+        <v>2515.709577540006</v>
       </c>
       <c r="Q35" t="n">
         <v>2672.271132497283</v>
@@ -6964,25 +6964,25 @@
         <v>2619.522006977434</v>
       </c>
       <c r="S35" t="n">
-        <v>2444.420318214079</v>
+        <v>2619.522006977434</v>
       </c>
       <c r="T35" t="n">
-        <v>2444.420318214079</v>
+        <v>2400.613831505563</v>
       </c>
       <c r="U35" t="n">
-        <v>2190.517675988746</v>
+        <v>2146.71118928023</v>
       </c>
       <c r="V35" t="n">
-        <v>1858.66593707711</v>
+        <v>2146.71118928023</v>
       </c>
       <c r="W35" t="n">
-        <v>1858.66593707711</v>
+        <v>2146.71118928023</v>
       </c>
       <c r="X35" t="n">
-        <v>1858.66593707711</v>
+        <v>1772.10351339016</v>
       </c>
       <c r="Y35" t="n">
-        <v>1858.66593707711</v>
+        <v>1772.10351339016</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>977.9359283390577</v>
+        <v>977.9359283390575</v>
       </c>
       <c r="C36" t="n">
-        <v>805.1828132608747</v>
+        <v>805.1828132608746</v>
       </c>
       <c r="D36" t="n">
         <v>657.5945066198185</v>
       </c>
       <c r="E36" t="n">
-        <v>499.9849776226731</v>
+        <v>499.9849776226732</v>
       </c>
       <c r="F36" t="n">
         <v>355.0291876392901</v>
@@ -7013,10 +7013,10 @@
         <v>114.2724569302449</v>
       </c>
       <c r="I36" t="n">
-        <v>53.44542264994566</v>
+        <v>53.44542264994567</v>
       </c>
       <c r="J36" t="n">
-        <v>53.44542264994566</v>
+        <v>53.44542264994567</v>
       </c>
       <c r="K36" t="n">
         <v>314.7318989823202</v>
@@ -7031,10 +7031,10 @@
         <v>1824.03332853421</v>
       </c>
       <c r="O36" t="n">
-        <v>2271.736097919625</v>
+        <v>2271.736097919626</v>
       </c>
       <c r="P36" t="n">
-        <v>2614.6304994461</v>
+        <v>2614.630499446101</v>
       </c>
       <c r="Q36" t="n">
         <v>2672.271132497283</v>
@@ -7046,7 +7046,7 @@
         <v>2468.153410051825</v>
       </c>
       <c r="T36" t="n">
-        <v>2270.875257430876</v>
+        <v>2270.875257430877</v>
       </c>
       <c r="U36" t="n">
         <v>2043.999548972456</v>
@@ -7058,7 +7058,7 @@
         <v>1557.23381383139</v>
       </c>
       <c r="X36" t="n">
-        <v>1350.706915236968</v>
+        <v>1350.706915236967</v>
       </c>
       <c r="Y36" t="n">
         <v>1144.978479460618</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.44542264994566</v>
+        <v>395.6201624252461</v>
       </c>
       <c r="C37" t="n">
-        <v>53.44542264994566</v>
+        <v>395.6201624252461</v>
       </c>
       <c r="D37" t="n">
-        <v>53.44542264994566</v>
+        <v>245.1094891782568</v>
       </c>
       <c r="E37" t="n">
-        <v>53.44542264994566</v>
+        <v>245.1094891782568</v>
       </c>
       <c r="F37" t="n">
-        <v>53.44542264994566</v>
+        <v>97.47411401683814</v>
       </c>
       <c r="G37" t="n">
-        <v>53.44542264994566</v>
+        <v>97.47411401683814</v>
       </c>
       <c r="H37" t="n">
-        <v>53.44542264994566</v>
+        <v>97.47411401683814</v>
       </c>
       <c r="I37" t="n">
-        <v>53.44542264994566</v>
+        <v>97.47411401683814</v>
       </c>
       <c r="J37" t="n">
-        <v>53.44542264994566</v>
+        <v>53.44542264994567</v>
       </c>
       <c r="K37" t="n">
         <v>112.4355273741755</v>
@@ -7104,7 +7104,7 @@
         <v>243.7261669754054</v>
       </c>
       <c r="M37" t="n">
-        <v>392.7466377512533</v>
+        <v>392.7466377512534</v>
       </c>
       <c r="N37" t="n">
         <v>543.3649967040217</v>
@@ -7116,31 +7116,31 @@
         <v>749.8448077442366</v>
       </c>
       <c r="Q37" t="n">
-        <v>723.4139626177315</v>
+        <v>723.4139626177316</v>
       </c>
       <c r="R37" t="n">
-        <v>723.4139626177315</v>
+        <v>723.4139626177316</v>
       </c>
       <c r="S37" t="n">
-        <v>723.4139626177315</v>
+        <v>616.5784188573352</v>
       </c>
       <c r="T37" t="n">
-        <v>495.5374241855877</v>
+        <v>616.5784188573352</v>
       </c>
       <c r="U37" t="n">
-        <v>206.6310005317341</v>
+        <v>616.5784188573352</v>
       </c>
       <c r="V37" t="n">
-        <v>206.6310005317341</v>
+        <v>616.5784188573352</v>
       </c>
       <c r="W37" t="n">
-        <v>206.6310005317341</v>
+        <v>616.5784188573352</v>
       </c>
       <c r="X37" t="n">
-        <v>206.6310005317341</v>
+        <v>616.5784188573352</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.44542264994566</v>
+        <v>395.6201624252461</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1195.752182159119</v>
+        <v>1791.870367662294</v>
       </c>
       <c r="C38" t="n">
-        <v>825.0601663218035</v>
+        <v>1421.178351824978</v>
       </c>
       <c r="D38" t="n">
-        <v>464.8533655595829</v>
+        <v>1421.178351824978</v>
       </c>
       <c r="E38" t="n">
-        <v>464.8533655595829</v>
+        <v>1034.190436920647</v>
       </c>
       <c r="F38" t="n">
-        <v>53.44542264994566</v>
+        <v>622.7824940110098</v>
       </c>
       <c r="G38" t="n">
-        <v>53.44542264994566</v>
+        <v>205.1785361973503</v>
       </c>
       <c r="H38" t="n">
-        <v>53.44542264994566</v>
+        <v>205.1785361973503</v>
       </c>
       <c r="I38" t="n">
         <v>53.44542264994566</v>
       </c>
       <c r="J38" t="n">
-        <v>172.6835894393966</v>
+        <v>100.7145714263643</v>
       </c>
       <c r="K38" t="n">
-        <v>473.6672848823002</v>
+        <v>401.6982668692679</v>
       </c>
       <c r="L38" t="n">
-        <v>899.0332520012979</v>
+        <v>827.0642339882656</v>
       </c>
       <c r="M38" t="n">
-        <v>1387.54714352663</v>
+        <v>1315.578125513598</v>
       </c>
       <c r="N38" t="n">
-        <v>1868.448525550123</v>
+        <v>1796.479507537091</v>
       </c>
       <c r="O38" t="n">
-        <v>2276.421712474421</v>
+        <v>2204.452694461389</v>
       </c>
       <c r="P38" t="n">
         <v>2515.709577540005</v>
@@ -7198,28 +7198,28 @@
         <v>2672.271132497283</v>
       </c>
       <c r="R38" t="n">
-        <v>2619.522006977434</v>
+        <v>2672.271132497283</v>
       </c>
       <c r="S38" t="n">
-        <v>2510.185064439244</v>
+        <v>2672.271132497283</v>
       </c>
       <c r="T38" t="n">
-        <v>2510.185064439244</v>
+        <v>2672.271132497283</v>
       </c>
       <c r="U38" t="n">
-        <v>2256.282422213911</v>
+        <v>2672.271132497283</v>
       </c>
       <c r="V38" t="n">
-        <v>1924.430683302275</v>
+        <v>2672.271132497283</v>
       </c>
       <c r="W38" t="n">
-        <v>1570.35985804919</v>
+        <v>2672.271132497283</v>
       </c>
       <c r="X38" t="n">
-        <v>1195.752182159119</v>
+        <v>2570.05570275586</v>
       </c>
       <c r="Y38" t="n">
-        <v>1195.752182159119</v>
+        <v>2179.462700986935</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>355.0291876392901</v>
       </c>
       <c r="G39" t="n">
-        <v>218.4031475727388</v>
+        <v>218.4031475727387</v>
       </c>
       <c r="H39" t="n">
         <v>114.2724569302449</v>
@@ -7259,7 +7259,7 @@
         <v>393.5313794407792</v>
       </c>
       <c r="L39" t="n">
-        <v>805.712898586786</v>
+        <v>805.7128985867861</v>
       </c>
       <c r="M39" t="n">
         <v>1339.509484158625</v>
@@ -7268,19 +7268,19 @@
         <v>1902.832808992669</v>
       </c>
       <c r="O39" t="n">
-        <v>2151.72183669357</v>
+        <v>2151.721836693569</v>
       </c>
       <c r="P39" t="n">
         <v>2494.616238220045</v>
       </c>
       <c r="Q39" t="n">
-        <v>2672.271132497283</v>
+        <v>2672.271132497282</v>
       </c>
       <c r="R39" t="n">
-        <v>2624.498083262702</v>
+        <v>2624.498083262701</v>
       </c>
       <c r="S39" t="n">
-        <v>2468.153410051825</v>
+        <v>2468.153410051824</v>
       </c>
       <c r="T39" t="n">
         <v>2270.875257430876</v>
@@ -7341,7 +7341,7 @@
         <v>243.7261669754054</v>
       </c>
       <c r="M40" t="n">
-        <v>392.7466377512533</v>
+        <v>392.7466377512534</v>
       </c>
       <c r="N40" t="n">
         <v>543.3649967040217</v>
@@ -7353,22 +7353,22 @@
         <v>749.8448077442366</v>
       </c>
       <c r="Q40" t="n">
-        <v>723.4139626177315</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="R40" t="n">
-        <v>577.3403582649916</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="S40" t="n">
-        <v>364.0036402361418</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="T40" t="n">
-        <v>136.1271018039981</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="U40" t="n">
-        <v>53.44542264994566</v>
+        <v>460.938384090383</v>
       </c>
       <c r="V40" t="n">
-        <v>53.44542264994566</v>
+        <v>342.427823546325</v>
       </c>
       <c r="W40" t="n">
         <v>53.44542264994566</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1777.72537149765</v>
+        <v>1269.445238277573</v>
       </c>
       <c r="C41" t="n">
-        <v>1569.463320929119</v>
+        <v>1269.445238277573</v>
       </c>
       <c r="D41" t="n">
-        <v>1209.256520166898</v>
+        <v>1269.445238277573</v>
       </c>
       <c r="E41" t="n">
-        <v>1209.256520166898</v>
+        <v>882.4573233732425</v>
       </c>
       <c r="F41" t="n">
-        <v>797.848577257261</v>
+        <v>471.0493804636052</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2446194436014</v>
+        <v>53.44542264994566</v>
       </c>
       <c r="H41" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994566</v>
       </c>
       <c r="I41" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994566</v>
       </c>
       <c r="J41" t="n">
         <v>172.6835894393966</v>
@@ -7417,46 +7417,46 @@
         <v>473.6672848823002</v>
       </c>
       <c r="L41" t="n">
-        <v>899.0332520012978</v>
+        <v>899.033252001298</v>
       </c>
       <c r="M41" t="n">
-        <v>1387.54714352663</v>
+        <v>1387.547143526631</v>
       </c>
       <c r="N41" t="n">
-        <v>1868.448525550123</v>
+        <v>1796.479507537091</v>
       </c>
       <c r="O41" t="n">
-        <v>2276.421712474421</v>
+        <v>2204.452694461389</v>
       </c>
       <c r="P41" t="n">
-        <v>2515.709577540004</v>
+        <v>2515.709577540005</v>
       </c>
       <c r="Q41" t="n">
-        <v>2672.271132497282</v>
+        <v>2672.271132497283</v>
       </c>
       <c r="R41" t="n">
-        <v>2672.271132497282</v>
+        <v>2672.271132497283</v>
       </c>
       <c r="S41" t="n">
-        <v>2497.169443733927</v>
+        <v>2497.169443733928</v>
       </c>
       <c r="T41" t="n">
-        <v>2497.169443733927</v>
+        <v>2497.169443733928</v>
       </c>
       <c r="U41" t="n">
-        <v>2497.169443733927</v>
+        <v>2243.266801508595</v>
       </c>
       <c r="V41" t="n">
-        <v>2165.317704822291</v>
+        <v>2243.266801508595</v>
       </c>
       <c r="W41" t="n">
-        <v>2165.317704822291</v>
+        <v>2243.266801508595</v>
       </c>
       <c r="X41" t="n">
-        <v>2165.317704822291</v>
+        <v>2047.63057337114</v>
       </c>
       <c r="Y41" t="n">
-        <v>2165.317704822291</v>
+        <v>1657.037571602215</v>
       </c>
     </row>
     <row r="42">
@@ -7466,73 +7466,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>977.9359283390575</v>
+        <v>977.9359283390581</v>
       </c>
       <c r="C42" t="n">
-        <v>805.1828132608746</v>
+        <v>805.1828132608752</v>
       </c>
       <c r="D42" t="n">
-        <v>657.5945066198185</v>
+        <v>657.594506619819</v>
       </c>
       <c r="E42" t="n">
-        <v>499.9849776226732</v>
+        <v>499.9849776226736</v>
       </c>
       <c r="F42" t="n">
-        <v>355.0291876392901</v>
+        <v>355.0291876392905</v>
       </c>
       <c r="G42" t="n">
-        <v>218.4031475727387</v>
+        <v>218.4031475727388</v>
       </c>
       <c r="H42" t="n">
         <v>114.2724569302449</v>
       </c>
       <c r="I42" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994566</v>
       </c>
       <c r="J42" t="n">
         <v>132.2449031084047</v>
       </c>
       <c r="K42" t="n">
-        <v>194.7176377562648</v>
+        <v>393.5313794407792</v>
       </c>
       <c r="L42" t="n">
-        <v>606.8991569022716</v>
+        <v>805.7128985867861</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.69574247411</v>
+        <v>1339.509484158625</v>
       </c>
       <c r="N42" t="n">
-        <v>1704.019067308154</v>
+        <v>1704.019067308155</v>
       </c>
       <c r="O42" t="n">
-        <v>2151.721836693569</v>
+        <v>2151.72183669357</v>
       </c>
       <c r="P42" t="n">
         <v>2494.616238220045</v>
       </c>
       <c r="Q42" t="n">
-        <v>2672.271132497282</v>
+        <v>2672.271132497283</v>
       </c>
       <c r="R42" t="n">
-        <v>2624.498083262701</v>
+        <v>2624.498083262702</v>
       </c>
       <c r="S42" t="n">
-        <v>2468.153410051823</v>
+        <v>2468.153410051825</v>
       </c>
       <c r="T42" t="n">
         <v>2270.875257430876</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.999548972456</v>
+        <v>2043.999548972457</v>
       </c>
       <c r="V42" t="n">
-        <v>1809.748305498056</v>
+        <v>1809.748305498057</v>
       </c>
       <c r="W42" t="n">
-        <v>1557.23381383139</v>
+        <v>1557.233813831391</v>
       </c>
       <c r="X42" t="n">
-        <v>1350.706915236967</v>
+        <v>1350.706915236968</v>
       </c>
       <c r="Y42" t="n">
         <v>1144.978479460618</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>282.2007061567381</v>
+        <v>189.3150825189948</v>
       </c>
       <c r="C43" t="n">
-        <v>282.2007061567381</v>
+        <v>189.3150825189948</v>
       </c>
       <c r="D43" t="n">
-        <v>282.2007061567381</v>
+        <v>189.3150825189948</v>
       </c>
       <c r="E43" t="n">
-        <v>282.2007061567381</v>
+        <v>189.3150825189948</v>
       </c>
       <c r="F43" t="n">
-        <v>282.2007061567381</v>
+        <v>189.3150825189948</v>
       </c>
       <c r="G43" t="n">
-        <v>282.2007061567381</v>
+        <v>189.3150825189948</v>
       </c>
       <c r="H43" t="n">
-        <v>189.3150825189947</v>
+        <v>189.3150825189948</v>
       </c>
       <c r="I43" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994566</v>
       </c>
       <c r="J43" t="n">
-        <v>53.44542264994564</v>
+        <v>53.44542264994566</v>
       </c>
       <c r="K43" t="n">
         <v>112.4355273741755</v>
@@ -7578,7 +7578,7 @@
         <v>243.7261669754054</v>
       </c>
       <c r="M43" t="n">
-        <v>392.7466377512533</v>
+        <v>392.7466377512534</v>
       </c>
       <c r="N43" t="n">
         <v>543.3649967040217</v>
@@ -7590,31 +7590,31 @@
         <v>749.8448077442366</v>
       </c>
       <c r="Q43" t="n">
-        <v>723.4139626177315</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="R43" t="n">
-        <v>723.4139626177315</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="S43" t="n">
-        <v>510.0772445888818</v>
+        <v>536.508089715387</v>
       </c>
       <c r="T43" t="n">
-        <v>282.2007061567381</v>
+        <v>536.508089715387</v>
       </c>
       <c r="U43" t="n">
-        <v>282.2007061567381</v>
+        <v>536.508089715387</v>
       </c>
       <c r="V43" t="n">
-        <v>282.2007061567381</v>
+        <v>478.2974834153741</v>
       </c>
       <c r="W43" t="n">
-        <v>282.2007061567381</v>
+        <v>189.3150825189948</v>
       </c>
       <c r="X43" t="n">
-        <v>282.2007061567381</v>
+        <v>189.3150825189948</v>
       </c>
       <c r="Y43" t="n">
-        <v>282.2007061567381</v>
+        <v>189.3150825189948</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>683.6538397520235</v>
+        <v>797.848577257261</v>
       </c>
       <c r="C44" t="n">
-        <v>312.9618239147077</v>
+        <v>797.848577257261</v>
       </c>
       <c r="D44" t="n">
-        <v>312.9618239147077</v>
+        <v>797.848577257261</v>
       </c>
       <c r="E44" t="n">
-        <v>312.9618239147077</v>
+        <v>797.848577257261</v>
       </c>
       <c r="F44" t="n">
-        <v>53.44542264994565</v>
+        <v>797.848577257261</v>
       </c>
       <c r="G44" t="n">
-        <v>53.44542264994565</v>
+        <v>380.2446194436015</v>
       </c>
       <c r="H44" t="n">
         <v>53.44542264994565</v>
@@ -7648,52 +7648,52 @@
         <v>53.44542264994565</v>
       </c>
       <c r="J44" t="n">
-        <v>100.7145714263642</v>
+        <v>172.6835894393966</v>
       </c>
       <c r="K44" t="n">
-        <v>401.6982668692677</v>
+        <v>473.6672848823002</v>
       </c>
       <c r="L44" t="n">
-        <v>827.0642339882654</v>
+        <v>899.033252001298</v>
       </c>
       <c r="M44" t="n">
-        <v>1315.578125513598</v>
+        <v>1387.547143526631</v>
       </c>
       <c r="N44" t="n">
-        <v>1796.47950753709</v>
+        <v>1868.448525550123</v>
       </c>
       <c r="O44" t="n">
-        <v>2204.452694461389</v>
+        <v>2276.421712474421</v>
       </c>
       <c r="P44" t="n">
-        <v>2515.709577540005</v>
+        <v>2587.678595553038</v>
       </c>
       <c r="Q44" t="n">
         <v>2672.271132497282</v>
       </c>
       <c r="R44" t="n">
-        <v>2619.522006977433</v>
+        <v>2672.271132497282</v>
       </c>
       <c r="S44" t="n">
-        <v>2444.420318214079</v>
+        <v>2497.169443733928</v>
       </c>
       <c r="T44" t="n">
-        <v>2444.420318214079</v>
+        <v>2497.169443733928</v>
       </c>
       <c r="U44" t="n">
-        <v>2190.517675988745</v>
+        <v>2243.266801508595</v>
       </c>
       <c r="V44" t="n">
-        <v>2190.517675988745</v>
+        <v>1911.415062596959</v>
       </c>
       <c r="W44" t="n">
-        <v>1836.44685073566</v>
+        <v>1557.344237343873</v>
       </c>
       <c r="X44" t="n">
-        <v>1461.83917484559</v>
+        <v>1182.736561453803</v>
       </c>
       <c r="Y44" t="n">
-        <v>1071.246173076665</v>
+        <v>1182.736561453803</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>53.44542264994565</v>
       </c>
       <c r="J45" t="n">
-        <v>132.2449031084047</v>
+        <v>53.44542264994565</v>
       </c>
       <c r="K45" t="n">
-        <v>393.5313794407792</v>
+        <v>314.7318989823202</v>
       </c>
       <c r="L45" t="n">
-        <v>805.712898586786</v>
+        <v>726.9134181283271</v>
       </c>
       <c r="M45" t="n">
-        <v>1339.509484158625</v>
+        <v>1260.710003700166</v>
       </c>
       <c r="N45" t="n">
-        <v>1881.673961585392</v>
+        <v>1824.03332853421</v>
       </c>
       <c r="O45" t="n">
-        <v>2329.376730970807</v>
+        <v>2271.736097919626</v>
       </c>
       <c r="P45" t="n">
-        <v>2672.271132497282</v>
+        <v>2614.630499446101</v>
       </c>
       <c r="Q45" t="n">
         <v>2672.271132497282</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2127.87344513945</v>
+        <v>707.4368638949569</v>
       </c>
       <c r="C46" t="n">
-        <v>2127.87344513945</v>
+        <v>707.4368638949569</v>
       </c>
       <c r="D46" t="n">
-        <v>2127.87344513945</v>
+        <v>707.4368638949569</v>
       </c>
       <c r="E46" t="n">
-        <v>2127.87344513945</v>
+        <v>707.4368638949569</v>
       </c>
       <c r="F46" t="n">
-        <v>2127.87344513945</v>
+        <v>559.8014887335382</v>
       </c>
       <c r="G46" t="n">
-        <v>2127.87344513945</v>
+        <v>390.8625448836664</v>
       </c>
       <c r="H46" t="n">
-        <v>2111.741407272041</v>
+        <v>233.3437738858872</v>
       </c>
       <c r="I46" t="n">
-        <v>1975.871747402992</v>
+        <v>97.47411401683813</v>
       </c>
       <c r="J46" t="n">
-        <v>1975.871747402992</v>
+        <v>53.44542264994565</v>
       </c>
       <c r="K46" t="n">
-        <v>2034.861852127221</v>
+        <v>112.4355273741755</v>
       </c>
       <c r="L46" t="n">
-        <v>2166.152491728451</v>
+        <v>243.7261669754054</v>
       </c>
       <c r="M46" t="n">
-        <v>2315.172962504299</v>
+        <v>392.7466377512534</v>
       </c>
       <c r="N46" t="n">
-        <v>2465.791321457068</v>
+        <v>543.3649967040217</v>
       </c>
       <c r="O46" t="n">
-        <v>2589.575157682347</v>
+        <v>667.1488329293011</v>
       </c>
       <c r="P46" t="n">
-        <v>2672.271132497282</v>
+        <v>749.8448077442366</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.271132497282</v>
+        <v>723.4139626177316</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.271132497282</v>
+        <v>723.4139626177316</v>
       </c>
       <c r="S46" t="n">
-        <v>2672.271132497282</v>
+        <v>723.4139626177316</v>
       </c>
       <c r="T46" t="n">
-        <v>2672.271132497282</v>
+        <v>723.4139626177316</v>
       </c>
       <c r="U46" t="n">
-        <v>2383.364708843429</v>
+        <v>723.4139626177316</v>
       </c>
       <c r="V46" t="n">
-        <v>2127.87344513945</v>
+        <v>723.4139626177316</v>
       </c>
       <c r="W46" t="n">
-        <v>2127.87344513945</v>
+        <v>707.4368638949569</v>
       </c>
       <c r="X46" t="n">
-        <v>2127.87344513945</v>
+        <v>707.4368638949569</v>
       </c>
       <c r="Y46" t="n">
-        <v>2127.87344513945</v>
+        <v>707.4368638949569</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>221.8814682493969</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L2" t="n">
-        <v>229.8722545957376</v>
+        <v>236.8714165215091</v>
       </c>
       <c r="M2" t="n">
-        <v>227.5271966636498</v>
+        <v>231.8814408771318</v>
       </c>
       <c r="N2" t="n">
-        <v>223.6777370066762</v>
+        <v>230.971600487217</v>
       </c>
       <c r="O2" t="n">
         <v>231.6396196166854</v>
       </c>
       <c r="P2" t="n">
-        <v>232.7460343419286</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8057,28 +8057,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>130.6658479257715</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
-        <v>141.6892664805409</v>
+        <v>134.395403</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>142.3843837659182</v>
       </c>
       <c r="M3" t="n">
-        <v>138.5806830739679</v>
+        <v>145.8745465545087</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>135.3520327617908</v>
       </c>
       <c r="O3" t="n">
-        <v>146.3252018138741</v>
+        <v>146.0305002591048</v>
       </c>
       <c r="P3" t="n">
         <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
-        <v>143.7760932144118</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8145,16 +8145,16 @@
         <v>138.8064228547481</v>
       </c>
       <c r="M4" t="n">
-        <v>136.3297793760026</v>
+        <v>142.7465028294557</v>
       </c>
       <c r="N4" t="n">
         <v>131.7872693341432</v>
       </c>
       <c r="O4" t="n">
-        <v>142.2889884710875</v>
+        <v>141.9942869163182</v>
       </c>
       <c r="P4" t="n">
-        <v>140.4068258466027</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q4" t="n">
         <v>67.95667671286152</v>
@@ -8218,19 +8218,19 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>214.587604768856</v>
+        <v>221.8814682493969</v>
       </c>
       <c r="L5" t="n">
-        <v>232.8118738627965</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M5" t="n">
-        <v>224.5875773965909</v>
+        <v>227.5271966636498</v>
       </c>
       <c r="N5" t="n">
         <v>230.971600487217</v>
       </c>
       <c r="O5" t="n">
-        <v>231.6396196166854</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P5" t="n">
         <v>232.7460343419286</v>
@@ -8294,7 +8294,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>130.9605494805409</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
         <v>141.3945649257715</v>
@@ -8303,13 +8303,13 @@
         <v>142.3843837659182</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>145.8745465545087</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>135.3520327617908</v>
       </c>
       <c r="O6" t="n">
-        <v>146.3252018138741</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
         <v>130.625047228972</v>
@@ -8455,7 +8455,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>214.587604768856</v>
+        <v>221.8814682493969</v>
       </c>
       <c r="L8" t="n">
         <v>237.1661180762784</v>
@@ -8464,13 +8464,13 @@
         <v>231.8814408771318</v>
       </c>
       <c r="N8" t="n">
-        <v>230.971600487217</v>
+        <v>230.6768989324477</v>
       </c>
       <c r="O8" t="n">
         <v>224.3457561361446</v>
       </c>
       <c r="P8" t="n">
-        <v>232.4513327871593</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q8" t="n">
         <v>216.7480476275882</v>
@@ -8534,7 +8534,7 @@
         <v>130.9605494805409</v>
       </c>
       <c r="K9" t="n">
-        <v>141.6892664805409</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
         <v>135.0905202853774</v>
@@ -8549,7 +8549,7 @@
         <v>146.0305002591048</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>137.9189107095128</v>
       </c>
       <c r="Q9" t="n">
         <v>143.7760932144118</v>
@@ -8698,13 +8698,13 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M11" t="n">
-        <v>394.798097041604</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N11" t="n">
         <v>454.8408013884635</v>
       </c>
       <c r="O11" t="n">
-        <v>396.0321885132552</v>
+        <v>323.336210722313</v>
       </c>
       <c r="P11" t="n">
         <v>334.6706564983419</v>
@@ -8777,10 +8777,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>283.5113050025113</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>498.5160693172957</v>
+        <v>297.6941080198065</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -8932,7 +8932,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L14" t="n">
-        <v>361.6716853415267</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M14" t="n">
         <v>467.4940748325458</v>
@@ -8941,7 +8941,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O14" t="n">
-        <v>396.0321885132552</v>
+        <v>323.3362107223135</v>
       </c>
       <c r="P14" t="n">
         <v>334.6706564983419</v>
@@ -9005,7 +9005,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>51.53924194750091</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9017,7 +9017,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>297.694108019807</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>97.25385275431834</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.8604797789567</v>
+        <v>103.164501988015</v>
       </c>
       <c r="K17" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
-        <v>361.6716853415267</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M17" t="n">
         <v>467.4940748325458</v>
@@ -9251,10 +9251,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>484.3332662999999</v>
+        <v>283.5113050025113</v>
       </c>
       <c r="N18" t="n">
-        <v>297.694108019807</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9412,7 +9412,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N20" t="n">
-        <v>382.1448235975213</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O20" t="n">
         <v>396.0321885132552</v>
@@ -9421,7 +9421,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
-        <v>220.8075902863009</v>
+        <v>148.1116124953593</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9494,13 +9494,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O21" t="n">
-        <v>208.7948507503095</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>309.8287062468721</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>39.03099108645749</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>51.53924194750091</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9734,10 +9734,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>130.3793180880455</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>97.25385275431789</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,19 +9953,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>51.53924194750093</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
-        <v>264.4474326246325</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>498.5160693172957</v>
+        <v>297.6941080198063</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -10190,13 +10190,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>51.53924194750093</v>
+        <v>51.53924194750091</v>
       </c>
       <c r="K30" t="n">
-        <v>275.0438464930818</v>
+        <v>153.8173200021167</v>
       </c>
       <c r="L30" t="n">
-        <v>264.4474326246325</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
         <v>484.3332662999999</v>
@@ -10427,13 +10427,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>51.53924194750093</v>
+        <v>51.53924194750091</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
-        <v>264.4474326246325</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
         <v>484.3332662999999</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4803792452831</v>
+        <v>97.25385275431789</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>103.1645019880153</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
         <v>337.1112290740114</v>
@@ -10600,7 +10600,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O35" t="n">
-        <v>396.0321885132552</v>
+        <v>323.3362107223139</v>
       </c>
       <c r="P35" t="n">
         <v>334.6706564983419</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>51.53924194750093</v>
+        <v>51.53924194750091</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>175.8604797789567</v>
+        <v>103.164501988015</v>
       </c>
       <c r="K38" t="n">
         <v>337.1112290740114</v>
@@ -10840,7 +10840,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P38" t="n">
-        <v>261.9746787074007</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q38" t="n">
         <v>220.8075902863009</v>
@@ -10916,7 +10916,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O39" t="n">
-        <v>208.7948507503104</v>
+        <v>208.7948507503092</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
@@ -11071,13 +11071,13 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N41" t="n">
-        <v>454.8408013884635</v>
+        <v>382.1448235975217</v>
       </c>
       <c r="O41" t="n">
         <v>396.0321885132552</v>
       </c>
       <c r="P41" t="n">
-        <v>261.9746787073998</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
         <v>220.8075902863009</v>
@@ -11141,7 +11141,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>74.22188519559245</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11150,7 +11150,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>297.694108019807</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>103.1645019880148</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
         <v>337.1112290740114</v>
@@ -11317,7 +11317,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.8075902863009</v>
+        <v>148.1116124953584</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>51.53924194750091</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11387,7 +11387,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>477.1434961786324</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -11396,7 +11396,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.0309910864575</v>
+        <v>97.25385275431789</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>375.6571774876512</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.5312048257193</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>29.5946820445225</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3636158030798</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23430,7 +23430,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.2495544113732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>155.9435832878013</v>
@@ -23463,16 +23463,16 @@
         <v>26.16653667524001</v>
       </c>
       <c r="R13" t="n">
-        <v>144.6128683092126</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.2033508485612</v>
       </c>
       <c r="T13" t="n">
-        <v>33.3830920703505</v>
+        <v>225.5977730478223</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>127.193064762321</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23484,7 +23484,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>98.82705557582807</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.427918235523</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>150.2157824119305</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.7190937171522</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3636158030798</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>195.3783184644087</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23670,7 +23670,7 @@
         <v>167.2495544113732</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>155.9435832878013</v>
       </c>
       <c r="I16" t="n">
         <v>134.5109632703586</v>
@@ -23700,10 +23700,10 @@
         <v>26.16653667524001</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>144.6128683092126</v>
       </c>
       <c r="S16" t="n">
-        <v>211.2033508485612</v>
+        <v>0.8446706044616121</v>
       </c>
       <c r="T16" t="n">
         <v>225.5977730478223</v>
@@ -23712,13 +23712,13 @@
         <v>286.017359417315</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
-        <v>123.3539971733906</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.7486738677682</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>160.8000030049474</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>323.5312048257193</v>
       </c>
       <c r="I17" t="n">
-        <v>23.91036545489625</v>
+        <v>150.2157824119305</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>52.22163426465082</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>173.3506718757211</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>251.3636158030798</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -23892,19 +23892,19 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.2495544113732</v>
+        <v>87.28992819675048</v>
       </c>
       <c r="H19" t="n">
         <v>155.9435832878013</v>
@@ -23937,7 +23937,7 @@
         <v>26.16653667524001</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>144.6128683092126</v>
       </c>
       <c r="S19" t="n">
         <v>211.2033508485612</v>
@@ -23946,13 +23946,13 @@
         <v>225.5977730478223</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.017359417315</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>27.28741337059512</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.427918235523</v>
       </c>
       <c r="H20" t="n">
-        <v>254.8867193061693</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>150.2157824119305</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,16 +24025,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3636158030798</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>208.2642611468482</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -24150,7 +24150,7 @@
         <v>134.5109632703586</v>
       </c>
       <c r="J22" t="n">
-        <v>43.58840445322356</v>
+        <v>43.58840445322355</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>26.16653667524002</v>
+        <v>26.16653667524001</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>144.6128683092126</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>211.2033508485612</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.5977730478223</v>
       </c>
       <c r="U22" t="n">
-        <v>286.017359417315</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>144.9149520291872</v>
+        <v>135.6108961283217</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>169.9095841692173</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.5312048257193</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>150.2157824119305</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>173.3506718757211</v>
       </c>
       <c r="T23" t="n">
         <v>216.7190937171522</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3636158030798</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>21.93951534764756</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>149.0055665145194</v>
@@ -24387,7 +24387,7 @@
         <v>134.5109632703586</v>
       </c>
       <c r="J25" t="n">
-        <v>43.58840445322356</v>
+        <v>43.58840445322355</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,28 +24408,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>26.16653667524001</v>
       </c>
       <c r="R25" t="n">
         <v>144.6128683092126</v>
       </c>
       <c r="S25" t="n">
-        <v>211.2033508485612</v>
+        <v>140.8426455165469</v>
       </c>
       <c r="T25" t="n">
-        <v>225.5977730478223</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.017359417315</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>134.981441668932</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.427918235523</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.5312048257193</v>
       </c>
       <c r="I26" t="n">
-        <v>150.2157824119305</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>173.3506718757211</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.7190937171522</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3636158030798</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>177.3624659595966</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>217.5559749757912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24618,13 +24618,13 @@
         <v>167.2495544113732</v>
       </c>
       <c r="H28" t="n">
-        <v>155.9435832878013</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>134.5109632703586</v>
       </c>
       <c r="J28" t="n">
-        <v>43.58840445322356</v>
+        <v>43.58840445322355</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,22 +24645,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>26.16653667524001</v>
       </c>
       <c r="R28" t="n">
-        <v>20.29772422535896</v>
+        <v>144.6128683092126</v>
       </c>
       <c r="S28" t="n">
-        <v>211.2033508485612</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.5977730478223</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>189.3266753581518</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
@@ -24691,13 +24691,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.427918235523</v>
       </c>
       <c r="H29" t="n">
-        <v>143.5455203047945</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>150.2157824119305</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>52.22163426465082</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>173.3506718757211</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>32.89081087312459</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,16 +24852,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.2495544113732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>155.9435832878013</v>
       </c>
       <c r="I31" t="n">
-        <v>134.5109632703586</v>
+        <v>123.940258903521</v>
       </c>
       <c r="J31" t="n">
-        <v>43.58840445322356</v>
+        <v>43.58840445322355</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,16 +24882,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>26.16653667524002</v>
+        <v>26.16653667524001</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>144.6128683092126</v>
       </c>
       <c r="S31" t="n">
         <v>211.2033508485612</v>
       </c>
       <c r="T31" t="n">
-        <v>225.5977730478223</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>27.28741337059523</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>146.9239338416926</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
         <v>413.427918235523</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>88.61193995125345</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>173.3506718757211</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3636158030798</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -25077,7 +25077,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
@@ -25095,10 +25095,10 @@
         <v>155.9435832878013</v>
       </c>
       <c r="I34" t="n">
-        <v>134.5109632703586</v>
+        <v>76.55182687371308</v>
       </c>
       <c r="J34" t="n">
-        <v>43.58840445322356</v>
+        <v>43.58840445322355</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>26.16653667524001</v>
       </c>
       <c r="R34" t="n">
         <v>144.6128683092126</v>
       </c>
       <c r="S34" t="n">
-        <v>211.2033508485612</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.5977730478223</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>94.50874725401505</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>20.1675599655199</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>116.6838831328536</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>323.5312048257193</v>
       </c>
       <c r="I35" t="n">
-        <v>150.2157824119305</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>173.3506718757211</v>
       </c>
       <c r="T35" t="n">
-        <v>216.7190937171522</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.6870717512358</v>
@@ -25317,13 +25317,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.2495544113732</v>
@@ -25335,7 +25335,7 @@
         <v>134.5109632703586</v>
       </c>
       <c r="J37" t="n">
-        <v>43.58840445322356</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>144.6128683092126</v>
       </c>
       <c r="S37" t="n">
-        <v>211.2033508485612</v>
+        <v>105.4361625257688</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.5977730478223</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.017359417315</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25380,7 +25380,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.09495176479766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.427918235523</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.5312048257193</v>
       </c>
       <c r="I38" t="n">
-        <v>150.2157824119305</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>52.22163426465082</v>
       </c>
       <c r="S38" t="n">
-        <v>65.10709876291325</v>
+        <v>173.3506718757211</v>
       </c>
       <c r="T38" t="n">
         <v>216.7190937171522</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3636158030798</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>269.668323687161</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25572,7 +25572,7 @@
         <v>134.5109632703586</v>
       </c>
       <c r="J40" t="n">
-        <v>43.58840445322356</v>
+        <v>43.58840445322355</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>26.16653667524001</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>144.6128683092126</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>211.2033508485612</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.5977730478223</v>
       </c>
       <c r="U40" t="n">
-        <v>204.1624970548031</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>135.6108961283217</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>160.8056656160969</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.5312048257193</v>
       </c>
       <c r="I41" t="n">
         <v>150.2157824119305</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>52.22163426465083</v>
+        <v>52.22163426465082</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>216.7190937171522</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3636158030798</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>177.1817332750885</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25803,13 +25803,13 @@
         <v>167.2495544113732</v>
       </c>
       <c r="H43" t="n">
-        <v>63.98681588643544</v>
+        <v>155.9435832878013</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.58840445322356</v>
+        <v>43.58840445322355</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>26.16653667524001</v>
       </c>
       <c r="R43" t="n">
         <v>144.6128683092126</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.5977730478223</v>
       </c>
       <c r="U43" t="n">
         <v>286.017359417315</v>
       </c>
       <c r="V43" t="n">
-        <v>252.9363510669392</v>
+        <v>195.3078508299264</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.677305636818289</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
@@ -25876,13 +25876,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>150.3726262284264</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.427918235523</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.5312048257193</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>150.2157824119305</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>52.22163426465082</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -26034,19 +26034,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2495544113732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9728657990659</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>43.58840445322356</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.16653667524002</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>144.6128683092126</v>
@@ -26079,13 +26079,13 @@
         <v>225.5977730478223</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.017359417315</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>270.2752491518686</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>648910.8870907731</v>
+        <v>648910.887090773</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656034.7412111447</v>
+        <v>656034.7412111448</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>648910.887090773</v>
+        <v>648910.8870907731</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>648910.8870907731</v>
+        <v>648910.887090773</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>648910.8870907731</v>
+        <v>648910.887090773</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>650654.048657474</v>
+        <v>650654.0486574742</v>
       </c>
       <c r="C2" t="n">
         <v>650654.0486574742</v>
@@ -26322,7 +26322,7 @@
         <v>650654.0486574741</v>
       </c>
       <c r="E2" t="n">
-        <v>455641.7842615928</v>
+        <v>455641.7842615927</v>
       </c>
       <c r="F2" t="n">
         <v>455641.7842615928</v>
@@ -26331,31 +26331,31 @@
         <v>455641.7842615928</v>
       </c>
       <c r="H2" t="n">
-        <v>455641.7842615927</v>
+        <v>455641.7842615928</v>
       </c>
       <c r="I2" t="n">
-        <v>460178.9414579919</v>
+        <v>460178.941457992</v>
       </c>
       <c r="J2" t="n">
+        <v>460178.941457992</v>
+      </c>
+      <c r="K2" t="n">
         <v>460178.9414579921</v>
       </c>
-      <c r="K2" t="n">
-        <v>460178.9414579922</v>
-      </c>
       <c r="L2" t="n">
-        <v>460178.9414579919</v>
+        <v>460178.9414579918</v>
       </c>
       <c r="M2" t="n">
         <v>455641.7842615927</v>
       </c>
       <c r="N2" t="n">
+        <v>455641.7842615927</v>
+      </c>
+      <c r="O2" t="n">
         <v>455641.7842615928</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>455641.7842615927</v>
-      </c>
-      <c r="P2" t="n">
-        <v>455641.7842615928</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2444.341411189293</v>
+        <v>2444.341411189286</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>482442.9626499846</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.020807547325839e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4882.16154057237</v>
+        <v>4882.161540572336</v>
       </c>
       <c r="J3" t="n">
         <v>1908.395616502626</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>405671.0012143496</v>
+      </c>
+      <c r="C4" t="n">
         <v>405671.0012143498</v>
-      </c>
-      <c r="C4" t="n">
-        <v>405671.0012143496</v>
       </c>
       <c r="D4" t="n">
         <v>405671.0012143497</v>
@@ -26450,7 +26450,7 @@
         <v>110090.3377080788</v>
       </c>
       <c r="M4" t="n">
-        <v>108345.6778586829</v>
+        <v>108345.6778586828</v>
       </c>
       <c r="N4" t="n">
         <v>108345.6778586828</v>
@@ -26487,7 +26487,7 @@
         <v>48355.9566959008</v>
       </c>
       <c r="H5" t="n">
-        <v>48355.95669590079</v>
+        <v>48355.95669590081</v>
       </c>
       <c r="I5" t="n">
         <v>49472.21085283763</v>
@@ -26502,13 +26502,13 @@
         <v>49472.21085283763</v>
       </c>
       <c r="M5" t="n">
-        <v>48355.9566959008</v>
+        <v>48355.95669590081</v>
       </c>
       <c r="N5" t="n">
         <v>48355.9566959008</v>
       </c>
       <c r="O5" t="n">
-        <v>48355.95669590079</v>
+        <v>48355.9566959008</v>
       </c>
       <c r="P5" t="n">
         <v>48355.9566959008</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>208467.6391323181</v>
+        <v>208452.592937491</v>
       </c>
       <c r="C6" t="n">
-        <v>210911.9805435077</v>
+        <v>210896.9343486802</v>
       </c>
       <c r="D6" t="n">
-        <v>210911.9805435075</v>
+        <v>210896.9343486802</v>
       </c>
       <c r="E6" t="n">
-        <v>-183502.8129429754</v>
+        <v>-189611.9924001742</v>
       </c>
       <c r="F6" t="n">
-        <v>298940.1497070092</v>
+        <v>292830.9702498104</v>
       </c>
       <c r="G6" t="n">
-        <v>298940.1497070092</v>
+        <v>292830.9702498105</v>
       </c>
       <c r="H6" t="n">
-        <v>298940.1497070091</v>
+        <v>292830.9702498105</v>
       </c>
       <c r="I6" t="n">
-        <v>295734.2313565032</v>
+        <v>289766.838061692</v>
       </c>
       <c r="J6" t="n">
-        <v>298707.9972805731</v>
+        <v>292740.6039857618</v>
       </c>
       <c r="K6" t="n">
-        <v>300616.3928970758</v>
+        <v>294648.9996022646</v>
       </c>
       <c r="L6" t="n">
-        <v>300616.3928970755</v>
+        <v>294648.9996022642</v>
       </c>
       <c r="M6" t="n">
-        <v>138847.8925618453</v>
+        <v>132738.7131046467</v>
       </c>
       <c r="N6" t="n">
-        <v>298940.1497070092</v>
+        <v>292830.9702498104</v>
       </c>
       <c r="O6" t="n">
-        <v>298940.1497070091</v>
+        <v>292830.9702498105</v>
       </c>
       <c r="P6" t="n">
-        <v>298940.1497070092</v>
+        <v>292830.9702498104</v>
       </c>
     </row>
   </sheetData>
@@ -26755,31 +26755,31 @@
         <v>354.9282331166104</v>
       </c>
       <c r="H3" t="n">
-        <v>354.9282331166103</v>
+        <v>354.9282331166104</v>
       </c>
       <c r="I3" t="n">
-        <v>354.9282331166103</v>
+        <v>354.9282331166104</v>
       </c>
       <c r="J3" t="n">
-        <v>354.9282331166103</v>
+        <v>354.9282331166104</v>
       </c>
       <c r="K3" t="n">
-        <v>354.9282331166103</v>
+        <v>354.9282331166104</v>
       </c>
       <c r="L3" t="n">
-        <v>354.9282331166103</v>
+        <v>354.9282331166104</v>
       </c>
       <c r="M3" t="n">
-        <v>354.9282331166103</v>
+        <v>354.9282331166104</v>
       </c>
       <c r="N3" t="n">
-        <v>354.9282331166103</v>
+        <v>354.9282331166104</v>
       </c>
       <c r="O3" t="n">
-        <v>354.9282331166103</v>
+        <v>354.9282331166104</v>
       </c>
       <c r="P3" t="n">
-        <v>354.9282331166103</v>
+        <v>354.9282331166104</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>7.293863480540836</v>
       </c>
       <c r="E4" t="n">
-        <v>668.0677831243207</v>
+        <v>668.0677831243206</v>
       </c>
       <c r="F4" t="n">
         <v>668.0677831243207</v>
@@ -26807,28 +26807,28 @@
         <v>668.0677831243207</v>
       </c>
       <c r="H4" t="n">
-        <v>668.0677831243205</v>
+        <v>668.0677831243208</v>
       </c>
       <c r="I4" t="n">
-        <v>686.4272264949922</v>
+        <v>686.4272264949923</v>
       </c>
       <c r="J4" t="n">
-        <v>686.4272264949922</v>
+        <v>686.4272264949923</v>
       </c>
       <c r="K4" t="n">
-        <v>686.4272264949922</v>
+        <v>686.4272264949923</v>
       </c>
       <c r="L4" t="n">
-        <v>686.4272264949922</v>
+        <v>686.4272264949923</v>
       </c>
       <c r="M4" t="n">
-        <v>668.0677831243207</v>
+        <v>668.0677831243208</v>
       </c>
       <c r="N4" t="n">
         <v>668.0677831243207</v>
       </c>
       <c r="O4" t="n">
-        <v>668.0677831243205</v>
+        <v>668.0677831243207</v>
       </c>
       <c r="P4" t="n">
         <v>668.0677831243206</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>660.7739196437799</v>
+        <v>660.7739196437798</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.403295877974717e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.35944337067163</v>
+        <v>18.3594433706715</v>
       </c>
       <c r="J4" t="n">
         <v>7.293863480540836</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>642.4144762731086</v>
+        <v>642.4144762731082</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>660.7739196437799</v>
+        <v>660.7739196437798</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.403295877974717e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27402,7 +27402,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>134.5569592203362</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>200.0997939044413</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
@@ -27441,13 +27441,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
-        <v>343.2362535200137</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>380.2626367975755</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.9476906566845</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>163.7317204468602</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>138.8185600941047</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>137.0817971298889</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>128.7293467245015</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>103.1686520415919</v>
       </c>
       <c r="I3" t="n">
         <v>79.20967998493083</v>
@@ -27542,19 +27542,19 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D4" t="n">
-        <v>141.7117030339785</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E4" t="n">
-        <v>140.5501892195388</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F4" t="n">
-        <v>138.8651579292637</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
         <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
-        <v>154.340208528376</v>
+        <v>155.2096370552565</v>
       </c>
       <c r="I4" t="n">
         <v>153.7585467974036</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>72.46683639530734</v>
       </c>
       <c r="R4" t="n">
         <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>222.3574069614225</v>
+        <v>215.0635434808817</v>
       </c>
       <c r="T4" t="n">
-        <v>228.3324659915077</v>
+        <v>221.0386025109668</v>
       </c>
       <c r="U4" t="n">
         <v>286.0522703910642</v>
@@ -27639,7 +27639,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>198.5710882429984</v>
       </c>
       <c r="T5" t="n">
-        <v>216.54068224276</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
         <v>251.4777635765444</v>
@@ -27678,7 +27678,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>343.2362535200137</v>
+        <v>344.7649591814566</v>
       </c>
       <c r="X5" t="n">
         <v>370.8615991311694</v>
@@ -27706,16 +27706,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>137.0817971298889</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>128.7293467245015</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>103.1686520415919</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>79.20967998493083</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>162.537178951984</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>217.3633135866604</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>224.6148675591143</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>242.6954832694592</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
@@ -27827,7 +27827,7 @@
         <v>215.0635434808817</v>
       </c>
       <c r="T7" t="n">
-        <v>228.3324659915077</v>
+        <v>221.9080310378473</v>
       </c>
       <c r="U7" t="n">
         <v>286.0522703910642</v>
@@ -27836,7 +27836,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
-        <v>279.6681419337552</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X7" t="n">
         <v>226.1403599323093</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.4225465108542</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
@@ -27876,7 +27876,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.4263877472167</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>198.5710882429984</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>217.1999593773224</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
@@ -27946,13 +27946,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>129.5987752513819</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>103.1686520415919</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>79.20967998493083</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>217.3633135866604</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
         <v>231.9087310396551</v>
@@ -27997,10 +27997,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>197.1677661279374</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>197.2467164649257</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -28013,28 +28013,28 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C10" t="n">
-        <v>160.912117977542</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
-        <v>139.6807606926583</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>167.8895889301081</v>
+        <v>161.4651539764477</v>
       </c>
       <c r="H10" t="n">
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>153.7585467974036</v>
+        <v>146.4646833168628</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>81.5449814472381</v>
       </c>
       <c r="K10" t="n">
         <v>7.480546237292515</v>
@@ -28058,7 +28058,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>166.0972841892415</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -28945,7 +28945,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -30121,7 +30121,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>-1.165290086646564e-12</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -32466,13 +32466,13 @@
         <v>1.42684716830798</v>
       </c>
       <c r="H20" t="n">
-        <v>14.6126985624341</v>
+        <v>14.61269856243411</v>
       </c>
       <c r="I20" t="n">
-        <v>55.00852545619346</v>
+        <v>55.00852545619347</v>
       </c>
       <c r="J20" t="n">
-        <v>121.1018698511795</v>
+        <v>121.1018698511796</v>
       </c>
       <c r="K20" t="n">
         <v>181.5003104856564</v>
@@ -32496,13 +32496,13 @@
         <v>154.0834421466185</v>
       </c>
       <c r="R20" t="n">
-        <v>89.62918843622624</v>
+        <v>89.62918843622626</v>
       </c>
       <c r="S20" t="n">
-        <v>32.51427984781813</v>
+        <v>32.51427984781814</v>
       </c>
       <c r="T20" t="n">
-        <v>6.246023479268186</v>
+        <v>6.246023479268187</v>
       </c>
       <c r="U20" t="n">
         <v>0.1141477734646384</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7634305391564826</v>
+        <v>0.7634305391564827</v>
       </c>
       <c r="H21" t="n">
-        <v>7.373131786063925</v>
+        <v>7.373131786063927</v>
       </c>
       <c r="I21" t="n">
-        <v>26.28477952797539</v>
+        <v>26.2847795279754</v>
       </c>
       <c r="J21" t="n">
-        <v>72.1274440524991</v>
+        <v>72.12744405249911</v>
       </c>
       <c r="K21" t="n">
-        <v>123.2772901759834</v>
+        <v>123.2772901759835</v>
       </c>
       <c r="L21" t="n">
         <v>165.7615300041302</v>
@@ -32569,10 +32569,10 @@
         <v>181.6395458667619</v>
       </c>
       <c r="P21" t="n">
-        <v>145.7817491833111</v>
+        <v>145.7817491833112</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.45123864741348</v>
+        <v>97.45123864741349</v>
       </c>
       <c r="R21" t="n">
         <v>47.39966101885602</v>
@@ -32581,7 +32581,7 @@
         <v>14.18038742687589</v>
       </c>
       <c r="T21" t="n">
-        <v>3.077160813529856</v>
+        <v>3.077160813529857</v>
       </c>
       <c r="U21" t="n">
         <v>0.05022569336555809</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.640034518734871</v>
+        <v>0.6400345187348712</v>
       </c>
       <c r="H22" t="n">
-        <v>5.690488721115494</v>
+        <v>5.690488721115495</v>
       </c>
       <c r="I22" t="n">
         <v>19.24758352704504</v>
@@ -32633,22 +32633,22 @@
         <v>45.25044047455538</v>
       </c>
       <c r="K22" t="n">
-        <v>74.36037408574227</v>
+        <v>74.36037408574228</v>
       </c>
       <c r="L22" t="n">
-        <v>95.15567744900075</v>
+        <v>95.15567744900076</v>
       </c>
       <c r="M22" t="n">
         <v>100.3283200595035</v>
       </c>
       <c r="N22" t="n">
-        <v>97.94273685330992</v>
+        <v>97.94273685330994</v>
       </c>
       <c r="O22" t="n">
-        <v>90.46596997536162</v>
+        <v>90.46596997536163</v>
       </c>
       <c r="P22" t="n">
-        <v>77.40926579317019</v>
+        <v>77.40926579317021</v>
       </c>
       <c r="Q22" t="n">
         <v>53.59416320060816</v>
@@ -32660,10 +32660,10 @@
         <v>11.15405611286134</v>
       </c>
       <c r="T22" t="n">
-        <v>2.734692943685357</v>
+        <v>2.734692943685358</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03491097374917482</v>
+        <v>0.03491097374917483</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,13 +32703,13 @@
         <v>1.42684716830798</v>
       </c>
       <c r="H23" t="n">
-        <v>14.6126985624341</v>
+        <v>14.61269856243411</v>
       </c>
       <c r="I23" t="n">
-        <v>55.00852545619346</v>
+        <v>55.00852545619347</v>
       </c>
       <c r="J23" t="n">
-        <v>121.1018698511795</v>
+        <v>121.1018698511796</v>
       </c>
       <c r="K23" t="n">
         <v>181.5003104856564</v>
@@ -32733,13 +32733,13 @@
         <v>154.0834421466185</v>
       </c>
       <c r="R23" t="n">
-        <v>89.62918843622624</v>
+        <v>89.62918843622626</v>
       </c>
       <c r="S23" t="n">
-        <v>32.51427984781813</v>
+        <v>32.51427984781814</v>
       </c>
       <c r="T23" t="n">
-        <v>6.246023479268186</v>
+        <v>6.246023479268187</v>
       </c>
       <c r="U23" t="n">
         <v>0.1141477734646384</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7634305391564826</v>
+        <v>0.7634305391564827</v>
       </c>
       <c r="H24" t="n">
-        <v>7.373131786063925</v>
+        <v>7.373131786063927</v>
       </c>
       <c r="I24" t="n">
-        <v>26.28477952797539</v>
+        <v>26.2847795279754</v>
       </c>
       <c r="J24" t="n">
-        <v>72.1274440524991</v>
+        <v>72.12744405249911</v>
       </c>
       <c r="K24" t="n">
-        <v>123.2772901759834</v>
+        <v>123.2772901759835</v>
       </c>
       <c r="L24" t="n">
         <v>165.7615300041302</v>
@@ -32806,10 +32806,10 @@
         <v>181.6395458667619</v>
       </c>
       <c r="P24" t="n">
-        <v>145.7817491833111</v>
+        <v>145.7817491833112</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.45123864741348</v>
+        <v>97.45123864741349</v>
       </c>
       <c r="R24" t="n">
         <v>47.39966101885602</v>
@@ -32818,7 +32818,7 @@
         <v>14.18038742687589</v>
       </c>
       <c r="T24" t="n">
-        <v>3.077160813529856</v>
+        <v>3.077160813529857</v>
       </c>
       <c r="U24" t="n">
         <v>0.05022569336555809</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.640034518734871</v>
+        <v>0.6400345187348712</v>
       </c>
       <c r="H25" t="n">
-        <v>5.690488721115494</v>
+        <v>5.690488721115495</v>
       </c>
       <c r="I25" t="n">
         <v>19.24758352704504</v>
@@ -32870,22 +32870,22 @@
         <v>45.25044047455538</v>
       </c>
       <c r="K25" t="n">
-        <v>74.36037408574227</v>
+        <v>74.36037408574228</v>
       </c>
       <c r="L25" t="n">
-        <v>95.15567744900075</v>
+        <v>95.15567744900076</v>
       </c>
       <c r="M25" t="n">
         <v>100.3283200595035</v>
       </c>
       <c r="N25" t="n">
-        <v>97.94273685330992</v>
+        <v>97.94273685330994</v>
       </c>
       <c r="O25" t="n">
-        <v>90.46596997536162</v>
+        <v>90.46596997536163</v>
       </c>
       <c r="P25" t="n">
-        <v>77.40926579317019</v>
+        <v>77.40926579317021</v>
       </c>
       <c r="Q25" t="n">
         <v>53.59416320060816</v>
@@ -32897,10 +32897,10 @@
         <v>11.15405611286134</v>
       </c>
       <c r="T25" t="n">
-        <v>2.734692943685357</v>
+        <v>2.734692943685358</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03491097374917482</v>
+        <v>0.03491097374917483</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,13 +32940,13 @@
         <v>1.42684716830798</v>
       </c>
       <c r="H26" t="n">
-        <v>14.6126985624341</v>
+        <v>14.61269856243411</v>
       </c>
       <c r="I26" t="n">
-        <v>55.00852545619346</v>
+        <v>55.00852545619347</v>
       </c>
       <c r="J26" t="n">
-        <v>121.1018698511795</v>
+        <v>121.1018698511796</v>
       </c>
       <c r="K26" t="n">
         <v>181.5003104856564</v>
@@ -32970,13 +32970,13 @@
         <v>154.0834421466185</v>
       </c>
       <c r="R26" t="n">
-        <v>89.62918843622624</v>
+        <v>89.62918843622626</v>
       </c>
       <c r="S26" t="n">
-        <v>32.51427984781813</v>
+        <v>32.51427984781814</v>
       </c>
       <c r="T26" t="n">
-        <v>6.246023479268186</v>
+        <v>6.246023479268187</v>
       </c>
       <c r="U26" t="n">
         <v>0.1141477734646384</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7634305391564826</v>
+        <v>0.7634305391564827</v>
       </c>
       <c r="H27" t="n">
-        <v>7.373131786063925</v>
+        <v>7.373131786063927</v>
       </c>
       <c r="I27" t="n">
-        <v>26.28477952797539</v>
+        <v>26.2847795279754</v>
       </c>
       <c r="J27" t="n">
-        <v>72.1274440524991</v>
+        <v>72.12744405249911</v>
       </c>
       <c r="K27" t="n">
-        <v>123.2772901759834</v>
+        <v>123.2772901759835</v>
       </c>
       <c r="L27" t="n">
         <v>165.7615300041302</v>
@@ -33043,10 +33043,10 @@
         <v>181.6395458667619</v>
       </c>
       <c r="P27" t="n">
-        <v>145.7817491833111</v>
+        <v>145.7817491833112</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.45123864741348</v>
+        <v>97.45123864741349</v>
       </c>
       <c r="R27" t="n">
         <v>47.39966101885602</v>
@@ -33055,7 +33055,7 @@
         <v>14.18038742687589</v>
       </c>
       <c r="T27" t="n">
-        <v>3.077160813529856</v>
+        <v>3.077160813529857</v>
       </c>
       <c r="U27" t="n">
         <v>0.05022569336555809</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.640034518734871</v>
+        <v>0.6400345187348712</v>
       </c>
       <c r="H28" t="n">
-        <v>5.690488721115494</v>
+        <v>5.690488721115495</v>
       </c>
       <c r="I28" t="n">
         <v>19.24758352704504</v>
@@ -33107,22 +33107,22 @@
         <v>45.25044047455538</v>
       </c>
       <c r="K28" t="n">
-        <v>74.36037408574227</v>
+        <v>74.36037408574228</v>
       </c>
       <c r="L28" t="n">
-        <v>95.15567744900075</v>
+        <v>95.15567744900076</v>
       </c>
       <c r="M28" t="n">
         <v>100.3283200595035</v>
       </c>
       <c r="N28" t="n">
-        <v>97.94273685330992</v>
+        <v>97.94273685330994</v>
       </c>
       <c r="O28" t="n">
-        <v>90.46596997536162</v>
+        <v>90.46596997536163</v>
       </c>
       <c r="P28" t="n">
-        <v>77.40926579317019</v>
+        <v>77.40926579317021</v>
       </c>
       <c r="Q28" t="n">
         <v>53.59416320060816</v>
@@ -33134,10 +33134,10 @@
         <v>11.15405611286134</v>
       </c>
       <c r="T28" t="n">
-        <v>2.734692943685357</v>
+        <v>2.734692943685358</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03491097374917482</v>
+        <v>0.03491097374917483</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,13 +33177,13 @@
         <v>1.42684716830798</v>
       </c>
       <c r="H29" t="n">
-        <v>14.6126985624341</v>
+        <v>14.61269856243411</v>
       </c>
       <c r="I29" t="n">
-        <v>55.00852545619346</v>
+        <v>55.00852545619347</v>
       </c>
       <c r="J29" t="n">
-        <v>121.1018698511795</v>
+        <v>121.1018698511796</v>
       </c>
       <c r="K29" t="n">
         <v>181.5003104856564</v>
@@ -33207,13 +33207,13 @@
         <v>154.0834421466185</v>
       </c>
       <c r="R29" t="n">
-        <v>89.62918843622624</v>
+        <v>89.62918843622626</v>
       </c>
       <c r="S29" t="n">
-        <v>32.51427984781813</v>
+        <v>32.51427984781814</v>
       </c>
       <c r="T29" t="n">
-        <v>6.246023479268186</v>
+        <v>6.246023479268187</v>
       </c>
       <c r="U29" t="n">
         <v>0.1141477734646384</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7634305391564826</v>
+        <v>0.7634305391564827</v>
       </c>
       <c r="H30" t="n">
-        <v>7.373131786063925</v>
+        <v>7.373131786063927</v>
       </c>
       <c r="I30" t="n">
-        <v>26.28477952797539</v>
+        <v>26.2847795279754</v>
       </c>
       <c r="J30" t="n">
-        <v>72.1274440524991</v>
+        <v>72.12744405249911</v>
       </c>
       <c r="K30" t="n">
-        <v>123.2772901759834</v>
+        <v>123.2772901759835</v>
       </c>
       <c r="L30" t="n">
         <v>165.7615300041302</v>
@@ -33280,10 +33280,10 @@
         <v>181.6395458667619</v>
       </c>
       <c r="P30" t="n">
-        <v>145.7817491833111</v>
+        <v>145.7817491833112</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.45123864741348</v>
+        <v>97.45123864741349</v>
       </c>
       <c r="R30" t="n">
         <v>47.39966101885602</v>
@@ -33292,7 +33292,7 @@
         <v>14.18038742687589</v>
       </c>
       <c r="T30" t="n">
-        <v>3.077160813529856</v>
+        <v>3.077160813529857</v>
       </c>
       <c r="U30" t="n">
         <v>0.05022569336555809</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.640034518734871</v>
+        <v>0.6400345187348712</v>
       </c>
       <c r="H31" t="n">
-        <v>5.690488721115494</v>
+        <v>5.690488721115495</v>
       </c>
       <c r="I31" t="n">
         <v>19.24758352704504</v>
@@ -33344,22 +33344,22 @@
         <v>45.25044047455538</v>
       </c>
       <c r="K31" t="n">
-        <v>74.36037408574227</v>
+        <v>74.36037408574228</v>
       </c>
       <c r="L31" t="n">
-        <v>95.15567744900075</v>
+        <v>95.15567744900076</v>
       </c>
       <c r="M31" t="n">
         <v>100.3283200595035</v>
       </c>
       <c r="N31" t="n">
-        <v>97.94273685330992</v>
+        <v>97.94273685330994</v>
       </c>
       <c r="O31" t="n">
-        <v>90.46596997536162</v>
+        <v>90.46596997536163</v>
       </c>
       <c r="P31" t="n">
-        <v>77.40926579317019</v>
+        <v>77.40926579317021</v>
       </c>
       <c r="Q31" t="n">
         <v>53.59416320060816</v>
@@ -33371,10 +33371,10 @@
         <v>11.15405611286134</v>
       </c>
       <c r="T31" t="n">
-        <v>2.734692943685357</v>
+        <v>2.734692943685358</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03491097374917482</v>
+        <v>0.03491097374917483</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,13 +33414,13 @@
         <v>1.42684716830798</v>
       </c>
       <c r="H32" t="n">
-        <v>14.6126985624341</v>
+        <v>14.61269856243411</v>
       </c>
       <c r="I32" t="n">
-        <v>55.00852545619346</v>
+        <v>55.00852545619347</v>
       </c>
       <c r="J32" t="n">
-        <v>121.1018698511795</v>
+        <v>121.1018698511796</v>
       </c>
       <c r="K32" t="n">
         <v>181.5003104856564</v>
@@ -33444,13 +33444,13 @@
         <v>154.0834421466185</v>
       </c>
       <c r="R32" t="n">
-        <v>89.62918843622624</v>
+        <v>89.62918843622626</v>
       </c>
       <c r="S32" t="n">
-        <v>32.51427984781813</v>
+        <v>32.51427984781814</v>
       </c>
       <c r="T32" t="n">
-        <v>6.246023479268186</v>
+        <v>6.246023479268187</v>
       </c>
       <c r="U32" t="n">
         <v>0.1141477734646384</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7634305391564826</v>
+        <v>0.7634305391564827</v>
       </c>
       <c r="H33" t="n">
-        <v>7.373131786063925</v>
+        <v>7.373131786063927</v>
       </c>
       <c r="I33" t="n">
-        <v>26.28477952797539</v>
+        <v>26.2847795279754</v>
       </c>
       <c r="J33" t="n">
-        <v>72.1274440524991</v>
+        <v>72.12744405249911</v>
       </c>
       <c r="K33" t="n">
-        <v>123.2772901759834</v>
+        <v>123.2772901759835</v>
       </c>
       <c r="L33" t="n">
         <v>165.7615300041302</v>
@@ -33517,10 +33517,10 @@
         <v>181.6395458667619</v>
       </c>
       <c r="P33" t="n">
-        <v>145.7817491833111</v>
+        <v>145.7817491833112</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.45123864741348</v>
+        <v>97.45123864741349</v>
       </c>
       <c r="R33" t="n">
         <v>47.39966101885602</v>
@@ -33529,7 +33529,7 @@
         <v>14.18038742687589</v>
       </c>
       <c r="T33" t="n">
-        <v>3.077160813529856</v>
+        <v>3.077160813529857</v>
       </c>
       <c r="U33" t="n">
         <v>0.05022569336555809</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.640034518734871</v>
+        <v>0.6400345187348712</v>
       </c>
       <c r="H34" t="n">
-        <v>5.690488721115494</v>
+        <v>5.690488721115495</v>
       </c>
       <c r="I34" t="n">
         <v>19.24758352704504</v>
@@ -33581,22 +33581,22 @@
         <v>45.25044047455538</v>
       </c>
       <c r="K34" t="n">
-        <v>74.36037408574227</v>
+        <v>74.36037408574228</v>
       </c>
       <c r="L34" t="n">
-        <v>95.15567744900075</v>
+        <v>95.15567744900076</v>
       </c>
       <c r="M34" t="n">
         <v>100.3283200595035</v>
       </c>
       <c r="N34" t="n">
-        <v>97.94273685330992</v>
+        <v>97.94273685330994</v>
       </c>
       <c r="O34" t="n">
-        <v>90.46596997536162</v>
+        <v>90.46596997536163</v>
       </c>
       <c r="P34" t="n">
-        <v>77.40926579317019</v>
+        <v>77.40926579317021</v>
       </c>
       <c r="Q34" t="n">
         <v>53.59416320060816</v>
@@ -33608,10 +33608,10 @@
         <v>11.15405611286134</v>
       </c>
       <c r="T34" t="n">
-        <v>2.734692943685357</v>
+        <v>2.734692943685358</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03491097374917482</v>
+        <v>0.03491097374917483</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,13 +33651,13 @@
         <v>1.42684716830798</v>
       </c>
       <c r="H35" t="n">
-        <v>14.6126985624341</v>
+        <v>14.61269856243411</v>
       </c>
       <c r="I35" t="n">
-        <v>55.00852545619346</v>
+        <v>55.00852545619347</v>
       </c>
       <c r="J35" t="n">
-        <v>121.1018698511795</v>
+        <v>121.1018698511796</v>
       </c>
       <c r="K35" t="n">
         <v>181.5003104856564</v>
@@ -33681,13 +33681,13 @@
         <v>154.0834421466185</v>
       </c>
       <c r="R35" t="n">
-        <v>89.62918843622624</v>
+        <v>89.62918843622626</v>
       </c>
       <c r="S35" t="n">
-        <v>32.51427984781813</v>
+        <v>32.51427984781814</v>
       </c>
       <c r="T35" t="n">
-        <v>6.246023479268186</v>
+        <v>6.246023479268187</v>
       </c>
       <c r="U35" t="n">
         <v>0.1141477734646384</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7634305391564826</v>
+        <v>0.7634305391564827</v>
       </c>
       <c r="H36" t="n">
-        <v>7.373131786063925</v>
+        <v>7.373131786063927</v>
       </c>
       <c r="I36" t="n">
-        <v>26.28477952797539</v>
+        <v>26.2847795279754</v>
       </c>
       <c r="J36" t="n">
-        <v>72.1274440524991</v>
+        <v>72.12744405249911</v>
       </c>
       <c r="K36" t="n">
-        <v>123.2772901759834</v>
+        <v>123.2772901759835</v>
       </c>
       <c r="L36" t="n">
         <v>165.7615300041302</v>
@@ -33754,10 +33754,10 @@
         <v>181.6395458667619</v>
       </c>
       <c r="P36" t="n">
-        <v>145.7817491833111</v>
+        <v>145.7817491833112</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.45123864741348</v>
+        <v>97.45123864741349</v>
       </c>
       <c r="R36" t="n">
         <v>47.39966101885602</v>
@@ -33766,7 +33766,7 @@
         <v>14.18038742687589</v>
       </c>
       <c r="T36" t="n">
-        <v>3.077160813529856</v>
+        <v>3.077160813529857</v>
       </c>
       <c r="U36" t="n">
         <v>0.05022569336555809</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.640034518734871</v>
+        <v>0.6400345187348712</v>
       </c>
       <c r="H37" t="n">
-        <v>5.690488721115494</v>
+        <v>5.690488721115495</v>
       </c>
       <c r="I37" t="n">
         <v>19.24758352704504</v>
@@ -33818,22 +33818,22 @@
         <v>45.25044047455538</v>
       </c>
       <c r="K37" t="n">
-        <v>74.36037408574227</v>
+        <v>74.36037408574228</v>
       </c>
       <c r="L37" t="n">
-        <v>95.15567744900075</v>
+        <v>95.15567744900076</v>
       </c>
       <c r="M37" t="n">
         <v>100.3283200595035</v>
       </c>
       <c r="N37" t="n">
-        <v>97.94273685330992</v>
+        <v>97.94273685330994</v>
       </c>
       <c r="O37" t="n">
-        <v>90.46596997536162</v>
+        <v>90.46596997536163</v>
       </c>
       <c r="P37" t="n">
-        <v>77.40926579317019</v>
+        <v>77.40926579317021</v>
       </c>
       <c r="Q37" t="n">
         <v>53.59416320060816</v>
@@ -33845,10 +33845,10 @@
         <v>11.15405611286134</v>
       </c>
       <c r="T37" t="n">
-        <v>2.734692943685357</v>
+        <v>2.734692943685358</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03491097374917482</v>
+        <v>0.03491097374917483</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,13 +33888,13 @@
         <v>1.42684716830798</v>
       </c>
       <c r="H38" t="n">
-        <v>14.6126985624341</v>
+        <v>14.61269856243411</v>
       </c>
       <c r="I38" t="n">
-        <v>55.00852545619346</v>
+        <v>55.00852545619347</v>
       </c>
       <c r="J38" t="n">
-        <v>121.1018698511795</v>
+        <v>121.1018698511796</v>
       </c>
       <c r="K38" t="n">
         <v>181.5003104856564</v>
@@ -33918,13 +33918,13 @@
         <v>154.0834421466185</v>
       </c>
       <c r="R38" t="n">
-        <v>89.62918843622624</v>
+        <v>89.62918843622626</v>
       </c>
       <c r="S38" t="n">
-        <v>32.51427984781813</v>
+        <v>32.51427984781814</v>
       </c>
       <c r="T38" t="n">
-        <v>6.246023479268186</v>
+        <v>6.246023479268187</v>
       </c>
       <c r="U38" t="n">
         <v>0.1141477734646384</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7634305391564826</v>
+        <v>0.7634305391564827</v>
       </c>
       <c r="H39" t="n">
-        <v>7.373131786063925</v>
+        <v>7.373131786063927</v>
       </c>
       <c r="I39" t="n">
-        <v>26.28477952797539</v>
+        <v>26.2847795279754</v>
       </c>
       <c r="J39" t="n">
-        <v>72.1274440524991</v>
+        <v>72.12744405249911</v>
       </c>
       <c r="K39" t="n">
-        <v>123.2772901759834</v>
+        <v>123.2772901759835</v>
       </c>
       <c r="L39" t="n">
         <v>165.7615300041302</v>
@@ -33991,10 +33991,10 @@
         <v>181.6395458667619</v>
       </c>
       <c r="P39" t="n">
-        <v>145.7817491833111</v>
+        <v>145.7817491833112</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.45123864741348</v>
+        <v>97.45123864741349</v>
       </c>
       <c r="R39" t="n">
         <v>47.39966101885602</v>
@@ -34003,7 +34003,7 @@
         <v>14.18038742687589</v>
       </c>
       <c r="T39" t="n">
-        <v>3.077160813529856</v>
+        <v>3.077160813529857</v>
       </c>
       <c r="U39" t="n">
         <v>0.05022569336555809</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.640034518734871</v>
+        <v>0.6400345187348712</v>
       </c>
       <c r="H40" t="n">
-        <v>5.690488721115494</v>
+        <v>5.690488721115495</v>
       </c>
       <c r="I40" t="n">
         <v>19.24758352704504</v>
@@ -34055,22 +34055,22 @@
         <v>45.25044047455538</v>
       </c>
       <c r="K40" t="n">
-        <v>74.36037408574227</v>
+        <v>74.36037408574228</v>
       </c>
       <c r="L40" t="n">
-        <v>95.15567744900075</v>
+        <v>95.15567744900076</v>
       </c>
       <c r="M40" t="n">
         <v>100.3283200595035</v>
       </c>
       <c r="N40" t="n">
-        <v>97.94273685330992</v>
+        <v>97.94273685330994</v>
       </c>
       <c r="O40" t="n">
-        <v>90.46596997536162</v>
+        <v>90.46596997536163</v>
       </c>
       <c r="P40" t="n">
-        <v>77.40926579317019</v>
+        <v>77.40926579317021</v>
       </c>
       <c r="Q40" t="n">
         <v>53.59416320060816</v>
@@ -34082,10 +34082,10 @@
         <v>11.15405611286134</v>
       </c>
       <c r="T40" t="n">
-        <v>2.734692943685357</v>
+        <v>2.734692943685358</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03491097374917482</v>
+        <v>0.03491097374917483</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,13 +34125,13 @@
         <v>1.42684716830798</v>
       </c>
       <c r="H41" t="n">
-        <v>14.6126985624341</v>
+        <v>14.61269856243411</v>
       </c>
       <c r="I41" t="n">
-        <v>55.00852545619346</v>
+        <v>55.00852545619347</v>
       </c>
       <c r="J41" t="n">
-        <v>121.1018698511795</v>
+        <v>121.1018698511796</v>
       </c>
       <c r="K41" t="n">
         <v>181.5003104856564</v>
@@ -34155,13 +34155,13 @@
         <v>154.0834421466185</v>
       </c>
       <c r="R41" t="n">
-        <v>89.62918843622624</v>
+        <v>89.62918843622626</v>
       </c>
       <c r="S41" t="n">
-        <v>32.51427984781813</v>
+        <v>32.51427984781814</v>
       </c>
       <c r="T41" t="n">
-        <v>6.246023479268186</v>
+        <v>6.246023479268187</v>
       </c>
       <c r="U41" t="n">
         <v>0.1141477734646384</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7634305391564826</v>
+        <v>0.7634305391564827</v>
       </c>
       <c r="H42" t="n">
-        <v>7.373131786063925</v>
+        <v>7.373131786063927</v>
       </c>
       <c r="I42" t="n">
-        <v>26.28477952797539</v>
+        <v>26.2847795279754</v>
       </c>
       <c r="J42" t="n">
-        <v>72.1274440524991</v>
+        <v>72.12744405249911</v>
       </c>
       <c r="K42" t="n">
-        <v>123.2772901759834</v>
+        <v>123.2772901759835</v>
       </c>
       <c r="L42" t="n">
         <v>165.7615300041302</v>
@@ -34228,10 +34228,10 @@
         <v>181.6395458667619</v>
       </c>
       <c r="P42" t="n">
-        <v>145.7817491833111</v>
+        <v>145.7817491833112</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.45123864741348</v>
+        <v>97.45123864741349</v>
       </c>
       <c r="R42" t="n">
         <v>47.39966101885602</v>
@@ -34240,7 +34240,7 @@
         <v>14.18038742687589</v>
       </c>
       <c r="T42" t="n">
-        <v>3.077160813529856</v>
+        <v>3.077160813529857</v>
       </c>
       <c r="U42" t="n">
         <v>0.05022569336555809</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.640034518734871</v>
+        <v>0.6400345187348712</v>
       </c>
       <c r="H43" t="n">
-        <v>5.690488721115494</v>
+        <v>5.690488721115495</v>
       </c>
       <c r="I43" t="n">
         <v>19.24758352704504</v>
@@ -34292,22 +34292,22 @@
         <v>45.25044047455538</v>
       </c>
       <c r="K43" t="n">
-        <v>74.36037408574227</v>
+        <v>74.36037408574228</v>
       </c>
       <c r="L43" t="n">
-        <v>95.15567744900075</v>
+        <v>95.15567744900076</v>
       </c>
       <c r="M43" t="n">
         <v>100.3283200595035</v>
       </c>
       <c r="N43" t="n">
-        <v>97.94273685330992</v>
+        <v>97.94273685330994</v>
       </c>
       <c r="O43" t="n">
-        <v>90.46596997536162</v>
+        <v>90.46596997536163</v>
       </c>
       <c r="P43" t="n">
-        <v>77.40926579317019</v>
+        <v>77.40926579317021</v>
       </c>
       <c r="Q43" t="n">
         <v>53.59416320060816</v>
@@ -34319,10 +34319,10 @@
         <v>11.15405611286134</v>
       </c>
       <c r="T43" t="n">
-        <v>2.734692943685357</v>
+        <v>2.734692943685358</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03491097374917482</v>
+        <v>0.03491097374917483</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,13 +34362,13 @@
         <v>1.42684716830798</v>
       </c>
       <c r="H44" t="n">
-        <v>14.6126985624341</v>
+        <v>14.61269856243411</v>
       </c>
       <c r="I44" t="n">
-        <v>55.00852545619346</v>
+        <v>55.00852545619347</v>
       </c>
       <c r="J44" t="n">
-        <v>121.1018698511795</v>
+        <v>121.1018698511796</v>
       </c>
       <c r="K44" t="n">
         <v>181.5003104856564</v>
@@ -34392,13 +34392,13 @@
         <v>154.0834421466185</v>
       </c>
       <c r="R44" t="n">
-        <v>89.62918843622624</v>
+        <v>89.62918843622626</v>
       </c>
       <c r="S44" t="n">
-        <v>32.51427984781813</v>
+        <v>32.51427984781814</v>
       </c>
       <c r="T44" t="n">
-        <v>6.246023479268186</v>
+        <v>6.246023479268187</v>
       </c>
       <c r="U44" t="n">
         <v>0.1141477734646384</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7634305391564826</v>
+        <v>0.7634305391564827</v>
       </c>
       <c r="H45" t="n">
-        <v>7.373131786063925</v>
+        <v>7.373131786063927</v>
       </c>
       <c r="I45" t="n">
-        <v>26.28477952797539</v>
+        <v>26.2847795279754</v>
       </c>
       <c r="J45" t="n">
-        <v>72.1274440524991</v>
+        <v>72.12744405249911</v>
       </c>
       <c r="K45" t="n">
-        <v>123.2772901759834</v>
+        <v>123.2772901759835</v>
       </c>
       <c r="L45" t="n">
         <v>165.7615300041302</v>
@@ -34465,10 +34465,10 @@
         <v>181.6395458667619</v>
       </c>
       <c r="P45" t="n">
-        <v>145.7817491833111</v>
+        <v>145.7817491833112</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.45123864741348</v>
+        <v>97.45123864741349</v>
       </c>
       <c r="R45" t="n">
         <v>47.39966101885602</v>
@@ -34477,7 +34477,7 @@
         <v>14.18038742687589</v>
       </c>
       <c r="T45" t="n">
-        <v>3.077160813529856</v>
+        <v>3.077160813529857</v>
       </c>
       <c r="U45" t="n">
         <v>0.05022569336555809</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.640034518734871</v>
+        <v>0.6400345187348712</v>
       </c>
       <c r="H46" t="n">
-        <v>5.690488721115494</v>
+        <v>5.690488721115495</v>
       </c>
       <c r="I46" t="n">
         <v>19.24758352704504</v>
@@ -34529,22 +34529,22 @@
         <v>45.25044047455538</v>
       </c>
       <c r="K46" t="n">
-        <v>74.36037408574227</v>
+        <v>74.36037408574228</v>
       </c>
       <c r="L46" t="n">
-        <v>95.15567744900075</v>
+        <v>95.15567744900076</v>
       </c>
       <c r="M46" t="n">
         <v>100.3283200595035</v>
       </c>
       <c r="N46" t="n">
-        <v>97.94273685330992</v>
+        <v>97.94273685330994</v>
       </c>
       <c r="O46" t="n">
-        <v>90.46596997536162</v>
+        <v>90.46596997536163</v>
       </c>
       <c r="P46" t="n">
-        <v>77.40926579317019</v>
+        <v>77.40926579317021</v>
       </c>
       <c r="Q46" t="n">
         <v>53.59416320060816</v>
@@ -34556,10 +34556,10 @@
         <v>11.15405611286134</v>
       </c>
       <c r="T46" t="n">
-        <v>2.734692943685357</v>
+        <v>2.734692943685358</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03491097374917482</v>
+        <v>0.03491097374917483</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.999161925771512</v>
+      </c>
+      <c r="M2" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.939619267058895</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="O2" t="n">
         <v>7.293863480540836</v>
       </c>
       <c r="P2" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.293863480540836</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7.293863480540836</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.293863480540836</v>
+      </c>
+      <c r="O3" t="n">
         <v>6.999161925771512</v>
       </c>
-      <c r="K3" t="n">
-        <v>7.293863480540836</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>7.293863480540836</v>
-      </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34865,16 +34865,16 @@
         <v>7.293863480540836</v>
       </c>
       <c r="M4" t="n">
-        <v>0.877140027087671</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="N4" t="n">
         <v>7.293863480540836</v>
       </c>
       <c r="O4" t="n">
-        <v>7.293863480540836</v>
+        <v>6.999161925771512</v>
       </c>
       <c r="P4" t="n">
-        <v>6.12202189868384</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>2.939619267058895</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>7.293863480540836</v>
       </c>
       <c r="O5" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>7.293863480540836</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>6.999161925771512</v>
@@ -35023,13 +35023,13 @@
         <v>7.293863480540836</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="O6" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="L8" t="n">
         <v>7.293863480540836</v>
@@ -35184,13 +35184,13 @@
         <v>7.293863480540836</v>
       </c>
       <c r="N8" t="n">
-        <v>7.293863480540836</v>
+        <v>6.999161925771512</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>6.999161925771512</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>7.293863480540836</v>
       </c>
       <c r="K9" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>6.999161925771512</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="Q9" t="n">
         <v>7.293863480540836</v>
@@ -35418,13 +35418,13 @@
         <v>429.6625930494927</v>
       </c>
       <c r="M11" t="n">
-        <v>420.7523974871719</v>
+        <v>493.4483752781138</v>
       </c>
       <c r="N11" t="n">
         <v>485.7589717409012</v>
       </c>
       <c r="O11" t="n">
-        <v>412.094128206362</v>
+        <v>339.3981504154199</v>
       </c>
       <c r="P11" t="n">
         <v>314.4008919986022</v>
@@ -35497,10 +35497,10 @@
         <v>416.3449688343504</v>
       </c>
       <c r="M12" t="n">
-        <v>338.3665089770961</v>
+        <v>539.1884702745847</v>
       </c>
       <c r="N12" t="n">
-        <v>569.0134594283276</v>
+        <v>368.1914981308385</v>
       </c>
       <c r="O12" t="n">
         <v>452.2250195812273</v>
@@ -35652,7 +35652,7 @@
         <v>304.0239347908117</v>
       </c>
       <c r="L14" t="n">
-        <v>356.9666152585509</v>
+        <v>429.6625930494927</v>
       </c>
       <c r="M14" t="n">
         <v>493.4483752781138</v>
@@ -35661,7 +35661,7 @@
         <v>485.7589717409012</v>
       </c>
       <c r="O14" t="n">
-        <v>412.094128206362</v>
+        <v>339.3981504154203</v>
       </c>
       <c r="P14" t="n">
         <v>314.4008919986022</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>79.59543480652427</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>263.9257336690652</v>
@@ -35737,7 +35737,7 @@
         <v>539.1884702745847</v>
       </c>
       <c r="N15" t="n">
-        <v>368.1914981308389</v>
+        <v>569.0134594283276</v>
       </c>
       <c r="O15" t="n">
         <v>452.2250195812273</v>
@@ -35746,7 +35746,7 @@
         <v>346.3579813398738</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.4493881588256</v>
+        <v>58.22286166786085</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>120.4425927166171</v>
+        <v>47.74661492567542</v>
       </c>
       <c r="K17" t="n">
         <v>304.0239347908117</v>
       </c>
       <c r="L17" t="n">
-        <v>356.9666152585509</v>
+        <v>429.6625930494927</v>
       </c>
       <c r="M17" t="n">
         <v>493.4483752781138</v>
@@ -35971,10 +35971,10 @@
         <v>416.3449688343504</v>
       </c>
       <c r="M18" t="n">
-        <v>539.1884702745847</v>
+        <v>338.3665089770961</v>
       </c>
       <c r="N18" t="n">
-        <v>368.1914981308389</v>
+        <v>569.0134594283276</v>
       </c>
       <c r="O18" t="n">
         <v>452.2250195812273</v>
@@ -36126,13 +36126,13 @@
         <v>304.0239347908117</v>
       </c>
       <c r="L20" t="n">
-        <v>429.6625930494926</v>
+        <v>429.6625930494927</v>
       </c>
       <c r="M20" t="n">
         <v>493.4483752781138</v>
       </c>
       <c r="N20" t="n">
-        <v>413.062993949959</v>
+        <v>485.7589717409012</v>
       </c>
       <c r="O20" t="n">
         <v>412.094128206362</v>
@@ -36141,7 +36141,7 @@
         <v>314.4008919986022</v>
       </c>
       <c r="Q20" t="n">
-        <v>158.1429848053311</v>
+        <v>85.44700701438958</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>79.59543480652425</v>
+        <v>79.59543480652427</v>
       </c>
       <c r="K21" t="n">
         <v>263.9257336690652</v>
       </c>
       <c r="L21" t="n">
-        <v>416.3449688343503</v>
+        <v>416.3449688343504</v>
       </c>
       <c r="M21" t="n">
         <v>539.1884702745847</v>
       </c>
       <c r="N21" t="n">
-        <v>569.0134594283275</v>
+        <v>569.0134594283276</v>
       </c>
       <c r="O21" t="n">
-        <v>251.4030582837381</v>
+        <v>452.2250195812273</v>
       </c>
       <c r="P21" t="n">
-        <v>346.3579813398738</v>
+        <v>324.9854082012113</v>
       </c>
       <c r="Q21" t="n">
-        <v>179.4493881588256</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>59.58596436790891</v>
+        <v>59.58596436790893</v>
       </c>
       <c r="L22" t="n">
         <v>132.61680767801</v>
@@ -36296,7 +36296,7 @@
         <v>125.0341780053327</v>
       </c>
       <c r="P22" t="n">
-        <v>83.53128769185403</v>
+        <v>83.53128769185405</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>304.0239347908117</v>
       </c>
       <c r="L23" t="n">
-        <v>429.6625930494926</v>
+        <v>429.6625930494927</v>
       </c>
       <c r="M23" t="n">
         <v>493.4483752781138</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>79.59543480652425</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>263.9257336690652</v>
       </c>
       <c r="L24" t="n">
-        <v>416.3449688343503</v>
+        <v>416.3449688343504</v>
       </c>
       <c r="M24" t="n">
         <v>539.1884702745847</v>
       </c>
       <c r="N24" t="n">
-        <v>569.0134594283275</v>
+        <v>569.0134594283276</v>
       </c>
       <c r="O24" t="n">
-        <v>452.2250195812272</v>
+        <v>452.2250195812273</v>
       </c>
       <c r="P24" t="n">
-        <v>145.5360200423847</v>
+        <v>346.3579813398738</v>
       </c>
       <c r="Q24" t="n">
-        <v>179.4493881588256</v>
+        <v>58.2228616678604</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>59.58596436790891</v>
+        <v>59.58596436790893</v>
       </c>
       <c r="L25" t="n">
         <v>132.61680767801</v>
@@ -36533,7 +36533,7 @@
         <v>125.0341780053327</v>
       </c>
       <c r="P25" t="n">
-        <v>83.53128769185403</v>
+        <v>83.53128769185405</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>304.0239347908117</v>
       </c>
       <c r="L26" t="n">
-        <v>429.6625930494926</v>
+        <v>429.6625930494927</v>
       </c>
       <c r="M26" t="n">
         <v>493.4483752781138</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>79.59543480652427</v>
       </c>
       <c r="K27" t="n">
         <v>263.9257336690652</v>
       </c>
       <c r="L27" t="n">
-        <v>295.1184423433853</v>
+        <v>416.3449688343504</v>
       </c>
       <c r="M27" t="n">
         <v>539.1884702745847</v>
       </c>
       <c r="N27" t="n">
-        <v>569.0134594283275</v>
+        <v>368.1914981308382</v>
       </c>
       <c r="O27" t="n">
-        <v>452.2250195812272</v>
+        <v>452.2250195812273</v>
       </c>
       <c r="P27" t="n">
         <v>346.3579813398738</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>59.58596436790891</v>
+        <v>59.58596436790893</v>
       </c>
       <c r="L28" t="n">
         <v>132.61680767801</v>
@@ -36770,7 +36770,7 @@
         <v>125.0341780053327</v>
       </c>
       <c r="P28" t="n">
-        <v>83.53128769185403</v>
+        <v>83.53128769185405</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>304.0239347908117</v>
       </c>
       <c r="L29" t="n">
-        <v>429.6625930494926</v>
+        <v>429.6625930494927</v>
       </c>
       <c r="M29" t="n">
         <v>493.4483752781138</v>
@@ -36913,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>263.9257336690652</v>
+        <v>142.6992071781002</v>
       </c>
       <c r="L30" t="n">
-        <v>295.1184423433853</v>
+        <v>416.3449688343504</v>
       </c>
       <c r="M30" t="n">
         <v>539.1884702745847</v>
       </c>
       <c r="N30" t="n">
-        <v>569.0134594283275</v>
+        <v>569.0134594283276</v>
       </c>
       <c r="O30" t="n">
-        <v>452.2250195812272</v>
+        <v>452.2250195812273</v>
       </c>
       <c r="P30" t="n">
         <v>346.3579813398738</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>59.58596436790891</v>
+        <v>59.58596436790893</v>
       </c>
       <c r="L31" t="n">
         <v>132.61680767801</v>
@@ -37007,7 +37007,7 @@
         <v>125.0341780053327</v>
       </c>
       <c r="P31" t="n">
-        <v>83.53128769185403</v>
+        <v>83.53128769185405</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>304.0239347908117</v>
       </c>
       <c r="L32" t="n">
-        <v>429.6625930494926</v>
+        <v>429.6625930494927</v>
       </c>
       <c r="M32" t="n">
         <v>493.4483752781138</v>
@@ -37153,22 +37153,22 @@
         <v>263.9257336690652</v>
       </c>
       <c r="L33" t="n">
-        <v>295.1184423433853</v>
+        <v>416.3449688343504</v>
       </c>
       <c r="M33" t="n">
         <v>539.1884702745847</v>
       </c>
       <c r="N33" t="n">
-        <v>569.0134594283275</v>
+        <v>569.0134594283276</v>
       </c>
       <c r="O33" t="n">
-        <v>452.2250195812272</v>
+        <v>452.2250195812273</v>
       </c>
       <c r="P33" t="n">
         <v>346.3579813398738</v>
       </c>
       <c r="Q33" t="n">
-        <v>179.4493881588256</v>
+        <v>58.2228616678604</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>59.58596436790891</v>
+        <v>59.58596436790893</v>
       </c>
       <c r="L34" t="n">
         <v>132.61680767801</v>
@@ -37244,7 +37244,7 @@
         <v>125.0341780053327</v>
       </c>
       <c r="P34" t="n">
-        <v>83.53128769185403</v>
+        <v>83.53128769185405</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>47.74661492567571</v>
+        <v>120.4425927166171</v>
       </c>
       <c r="K35" t="n">
         <v>304.0239347908117</v>
       </c>
       <c r="L35" t="n">
-        <v>429.6625930494926</v>
+        <v>429.6625930494927</v>
       </c>
       <c r="M35" t="n">
         <v>493.4483752781138</v>
@@ -37320,7 +37320,7 @@
         <v>485.7589717409012</v>
       </c>
       <c r="O35" t="n">
-        <v>412.094128206362</v>
+        <v>339.3981504154208</v>
       </c>
       <c r="P35" t="n">
         <v>314.4008919986022</v>
@@ -37390,16 +37390,16 @@
         <v>263.9257336690652</v>
       </c>
       <c r="L36" t="n">
-        <v>416.3449688343503</v>
+        <v>416.3449688343504</v>
       </c>
       <c r="M36" t="n">
         <v>539.1884702745847</v>
       </c>
       <c r="N36" t="n">
-        <v>569.0134594283275</v>
+        <v>569.0134594283276</v>
       </c>
       <c r="O36" t="n">
-        <v>452.2250195812272</v>
+        <v>452.2250195812273</v>
       </c>
       <c r="P36" t="n">
         <v>346.3579813398738</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>59.58596436790891</v>
+        <v>59.58596436790893</v>
       </c>
       <c r="L37" t="n">
         <v>132.61680767801</v>
@@ -37481,7 +37481,7 @@
         <v>125.0341780053327</v>
       </c>
       <c r="P37" t="n">
-        <v>83.53128769185403</v>
+        <v>83.53128769185405</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>120.4425927166171</v>
+        <v>47.74661492567542</v>
       </c>
       <c r="K38" t="n">
         <v>304.0239347908117</v>
       </c>
       <c r="L38" t="n">
-        <v>429.6625930494926</v>
+        <v>429.6625930494927</v>
       </c>
       <c r="M38" t="n">
         <v>493.4483752781138</v>
@@ -37560,7 +37560,7 @@
         <v>412.094128206362</v>
       </c>
       <c r="P38" t="n">
-        <v>241.704914207661</v>
+        <v>314.4008919986022</v>
       </c>
       <c r="Q38" t="n">
         <v>158.1429848053311</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>79.59543480652425</v>
+        <v>79.59543480652427</v>
       </c>
       <c r="K39" t="n">
         <v>263.9257336690652</v>
       </c>
       <c r="L39" t="n">
-        <v>416.3449688343503</v>
+        <v>416.3449688343504</v>
       </c>
       <c r="M39" t="n">
         <v>539.1884702745847</v>
       </c>
       <c r="N39" t="n">
-        <v>569.0134594283275</v>
+        <v>569.0134594283276</v>
       </c>
       <c r="O39" t="n">
-        <v>251.403058283739</v>
+        <v>251.4030582837378</v>
       </c>
       <c r="P39" t="n">
         <v>346.3579813398738</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>59.58596436790891</v>
+        <v>59.58596436790893</v>
       </c>
       <c r="L40" t="n">
         <v>132.61680767801</v>
@@ -37718,7 +37718,7 @@
         <v>125.0341780053327</v>
       </c>
       <c r="P40" t="n">
-        <v>83.53128769185403</v>
+        <v>83.53128769185405</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>304.0239347908117</v>
       </c>
       <c r="L41" t="n">
-        <v>429.6625930494926</v>
+        <v>429.6625930494927</v>
       </c>
       <c r="M41" t="n">
         <v>493.4483752781138</v>
       </c>
       <c r="N41" t="n">
-        <v>485.7589717409012</v>
+        <v>413.0629939499595</v>
       </c>
       <c r="O41" t="n">
         <v>412.094128206362</v>
       </c>
       <c r="P41" t="n">
-        <v>241.70491420766</v>
+        <v>314.4008919986022</v>
       </c>
       <c r="Q41" t="n">
         <v>158.1429848053311</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>79.59543480652425</v>
+        <v>79.59543480652427</v>
       </c>
       <c r="K42" t="n">
-        <v>63.10377237157586</v>
+        <v>263.9257336690652</v>
       </c>
       <c r="L42" t="n">
-        <v>416.3449688343503</v>
+        <v>416.3449688343504</v>
       </c>
       <c r="M42" t="n">
         <v>539.1884702745847</v>
       </c>
       <c r="N42" t="n">
-        <v>569.0134594283275</v>
+        <v>368.1914981308389</v>
       </c>
       <c r="O42" t="n">
-        <v>452.2250195812272</v>
+        <v>452.2250195812273</v>
       </c>
       <c r="P42" t="n">
         <v>346.3579813398738</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>59.58596436790891</v>
+        <v>59.58596436790893</v>
       </c>
       <c r="L43" t="n">
         <v>132.61680767801</v>
@@ -37955,7 +37955,7 @@
         <v>125.0341780053327</v>
       </c>
       <c r="P43" t="n">
-        <v>83.53128769185403</v>
+        <v>83.53128769185405</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>47.74661492567527</v>
+        <v>120.4425927166171</v>
       </c>
       <c r="K44" t="n">
         <v>304.0239347908117</v>
       </c>
       <c r="L44" t="n">
-        <v>429.6625930494926</v>
+        <v>429.6625930494927</v>
       </c>
       <c r="M44" t="n">
         <v>493.4483752781138</v>
@@ -38037,7 +38037,7 @@
         <v>314.4008919986022</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.1429848053311</v>
+        <v>85.44700701438867</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>79.59543480652425</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>263.9257336690652</v>
       </c>
       <c r="L45" t="n">
-        <v>416.3449688343503</v>
+        <v>416.3449688343504</v>
       </c>
       <c r="M45" t="n">
         <v>539.1884702745847</v>
       </c>
       <c r="N45" t="n">
-        <v>547.6408862896643</v>
+        <v>569.0134594283276</v>
       </c>
       <c r="O45" t="n">
-        <v>452.2250195812272</v>
+        <v>452.2250195812273</v>
       </c>
       <c r="P45" t="n">
         <v>346.3579813398738</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>58.2228616678604</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>59.58596436790891</v>
+        <v>59.58596436790893</v>
       </c>
       <c r="L46" t="n">
         <v>132.61680767801</v>
@@ -38192,7 +38192,7 @@
         <v>125.0341780053327</v>
       </c>
       <c r="P46" t="n">
-        <v>83.53128769185403</v>
+        <v>83.53128769185405</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
